--- a/teaching/traditional_assets/database/data/united_states/united_states_brokerage_investment_banking.xlsx
+++ b/teaching/traditional_assets/database/data/united_states/united_states_brokerage_investment_banking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ32"/>
+  <dimension ref="A1:AQ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>27</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,124 +591,124 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.06135</v>
+        <v>0.08500000000000001</v>
       </c>
       <c r="E2">
-        <v>0.192</v>
+        <v>0.207</v>
       </c>
       <c r="F2">
-        <v>0.1</v>
+        <v>0.09845000000000001</v>
       </c>
       <c r="G2">
-        <v>0.005791705413519905</v>
+        <v>0.005881252740818075</v>
       </c>
       <c r="H2">
-        <v>0.005485983100065404</v>
+        <v>0.005593120371887518</v>
       </c>
       <c r="I2">
-        <v>0.002251089409267729</v>
+        <v>-0.0001616405803650849</v>
       </c>
       <c r="J2">
-        <v>0.001875690934678968</v>
+        <v>-0.0001388717254904244</v>
       </c>
       <c r="K2">
-        <v>27664.875</v>
+        <v>23202.402</v>
       </c>
       <c r="L2">
-        <v>0.1762035330506171</v>
+        <v>0.1270981569037852</v>
       </c>
       <c r="M2">
-        <v>24961.515</v>
+        <v>14619.7</v>
       </c>
       <c r="N2">
-        <v>0.08111513372116579</v>
+        <v>0.03913137328684813</v>
       </c>
       <c r="O2">
-        <v>0.9022818646388244</v>
+        <v>0.6300942462767433</v>
       </c>
       <c r="P2">
-        <v>6144.97</v>
+        <v>4835.84</v>
       </c>
       <c r="Q2">
-        <v>0.019968742412572</v>
+        <v>0.01294370337253648</v>
       </c>
       <c r="R2">
-        <v>0.2221217337869772</v>
+        <v>0.2084198006740854</v>
       </c>
       <c r="S2">
-        <v>18816.545</v>
+        <v>9783.860000000001</v>
       </c>
       <c r="T2">
-        <v>0.7538222339469378</v>
+        <v>0.6692244026895217</v>
       </c>
       <c r="U2">
-        <v>165354.084</v>
+        <v>291821.766</v>
       </c>
       <c r="V2">
-        <v>0.5373359203157693</v>
+        <v>0.7810958130859897</v>
       </c>
       <c r="W2">
-        <v>0.1294846685569437</v>
+        <v>0.1333568005198884</v>
       </c>
       <c r="X2">
-        <v>0.05135381294262741</v>
+        <v>0.03769721425326007</v>
       </c>
       <c r="Y2">
-        <v>0.07813085561431632</v>
+        <v>0.09565958626662838</v>
       </c>
       <c r="Z2">
-        <v>0.1981537213298602</v>
+        <v>0.2160012928190576</v>
       </c>
       <c r="AA2">
-        <v>-0.0001269019458151909</v>
+        <v>-0.000508966837409795</v>
       </c>
       <c r="AB2">
-        <v>0.04199764081386943</v>
+        <v>0.02959960477309224</v>
       </c>
       <c r="AC2">
-        <v>-0.04209341549497351</v>
+        <v>-0.02966582189789582</v>
       </c>
       <c r="AD2">
-        <v>814435.65</v>
+        <v>804814.715</v>
       </c>
       <c r="AE2">
-        <v>11607.17602652491</v>
+        <v>13341.13146781149</v>
       </c>
       <c r="AF2">
-        <v>826042.8260265249</v>
+        <v>818155.8464678115</v>
       </c>
       <c r="AG2">
-        <v>660688.7420265249</v>
+        <v>526334.0804678116</v>
       </c>
       <c r="AH2">
-        <v>0.7285791405069374</v>
+        <v>0.6865097476724407</v>
       </c>
       <c r="AI2">
-        <v>0.7736424674386662</v>
+        <v>0.7684900848503109</v>
       </c>
       <c r="AJ2">
-        <v>0.6822349596070356</v>
+        <v>0.5848548461808951</v>
       </c>
       <c r="AK2">
-        <v>0.7321641229278789</v>
+        <v>0.6810688738951778</v>
       </c>
       <c r="AL2">
-        <v>168.71</v>
+        <v>144.015</v>
       </c>
       <c r="AM2">
-        <v>166.79</v>
+        <v>143.23</v>
       </c>
       <c r="AN2">
-        <v>287.5051407297947</v>
+        <v>286.0294223221127</v>
       </c>
       <c r="AO2">
-        <v>5.084950506786794</v>
+        <v>5.339360483282991</v>
       </c>
       <c r="AP2">
-        <v>233.2307159625528</v>
+        <v>187.0580025175714</v>
       </c>
       <c r="AQ2">
-        <v>5.143485820492835</v>
+        <v>5.368623891642812</v>
       </c>
     </row>
     <row r="3">
@@ -719,7 +719,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GH Capital Inc. (OTCPK:GHHC)</t>
+          <t>BlackStar Enterprise Group, Inc. (OTCPK:BEGI)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -727,32 +727,17 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>-0.8071748878923767</v>
-      </c>
-      <c r="J3">
-        <v>-0.8071748878923767</v>
-      </c>
       <c r="K3">
-        <v>-2.37</v>
-      </c>
-      <c r="L3">
-        <v>-10.62780269058296</v>
+        <v>-1.31</v>
       </c>
       <c r="M3">
-        <v>-0</v>
+        <v>0.075</v>
       </c>
       <c r="N3">
-        <v>-0</v>
+        <v>0.02678571428571429</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>-0.05725190839694656</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -764,70 +749,79 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>0.075</v>
+      </c>
+      <c r="T3">
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>0.054</v>
+        <v>0.023</v>
       </c>
       <c r="V3">
-        <v>0.05</v>
+        <v>0.008214285714285714</v>
       </c>
       <c r="W3">
-        <v>4.749498997995993</v>
+        <v>4.746376811594203</v>
       </c>
       <c r="X3">
-        <v>0.04379745540401286</v>
+        <v>0.03031041364147002</v>
       </c>
       <c r="Y3">
-        <v>4.70570154259198</v>
+        <v>4.716066397952734</v>
       </c>
       <c r="Z3">
-        <v>-0.7012578616352203</v>
+        <v>-0</v>
       </c>
       <c r="AA3">
-        <v>0.5660377358490567</v>
+        <v>3.415384615384614</v>
       </c>
       <c r="AB3">
-        <v>0.04226770986361158</v>
+        <v>0.02959960477309224</v>
       </c>
       <c r="AC3">
-        <v>0.5237700259854451</v>
+        <v>3.385785010611522</v>
       </c>
       <c r="AD3">
-        <v>0.12</v>
+        <v>0.258</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.12</v>
+        <v>0.258</v>
       </c>
       <c r="AG3">
-        <v>0.066</v>
+        <v>0.235</v>
       </c>
       <c r="AH3">
-        <v>0.09999999999999998</v>
+        <v>0.08436886854153042</v>
       </c>
       <c r="AI3">
-        <v>-0.9836065573770492</v>
+        <v>-5.608695652173915</v>
       </c>
       <c r="AJ3">
-        <v>0.05759162303664921</v>
+        <v>0.07742998352553543</v>
       </c>
       <c r="AK3">
-        <v>-0.3750000000000001</v>
+        <v>-3.405797101449277</v>
       </c>
       <c r="AL3">
-        <v>0.191</v>
+        <v>0.215</v>
       </c>
       <c r="AM3">
-        <v>0.191</v>
+        <v>0.215</v>
+      </c>
+      <c r="AN3">
+        <v>-1.162162162162162</v>
       </c>
       <c r="AO3">
-        <v>-0.9424083769633508</v>
+        <v>-1.032558139534884</v>
+      </c>
+      <c r="AP3">
+        <v>-1.058558558558559</v>
       </c>
       <c r="AQ3">
-        <v>-0.9424083769633508</v>
+        <v>-1.032558139534884</v>
       </c>
     </row>
     <row r="4">
@@ -847,124 +841,124 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.0472</v>
+        <v>0.0565</v>
       </c>
       <c r="E4">
-        <v>0.261</v>
+        <v>0.207</v>
       </c>
       <c r="F4">
-        <v>0.15</v>
+        <v>0.1</v>
       </c>
       <c r="G4">
-        <v>0.1575536949399345</v>
+        <v>0.1805587020546155</v>
       </c>
       <c r="H4">
-        <v>0.1575536949399345</v>
+        <v>0.1805587020546155</v>
       </c>
       <c r="I4">
-        <v>0.1560867333140945</v>
+        <v>0.1297894288155077</v>
       </c>
       <c r="J4">
-        <v>0.1168592004454908</v>
+        <v>0.09810648548252186</v>
       </c>
       <c r="K4">
-        <v>553.5</v>
+        <v>487.8</v>
       </c>
       <c r="L4">
-        <v>0.1007462686567164</v>
+        <v>0.08500775490999077</v>
       </c>
       <c r="M4">
-        <v>587.7</v>
+        <v>359</v>
       </c>
       <c r="N4">
-        <v>0.07853382152497529</v>
+        <v>0.04344721586852074</v>
       </c>
       <c r="O4">
-        <v>1.061788617886179</v>
+        <v>0.7359573595735958</v>
       </c>
       <c r="P4">
-        <v>83.90000000000001</v>
+        <v>79.5</v>
       </c>
       <c r="Q4">
-        <v>0.01121148141219232</v>
+        <v>0.009621319391496932</v>
       </c>
       <c r="R4">
-        <v>0.1515808491418248</v>
+        <v>0.1629766297662976</v>
       </c>
       <c r="S4">
-        <v>503.8000000000001</v>
+        <v>279.5</v>
       </c>
       <c r="T4">
-        <v>0.8572400884805174</v>
+        <v>0.7785515320334262</v>
       </c>
       <c r="U4">
-        <v>929.5</v>
+        <v>800.8</v>
       </c>
       <c r="V4">
-        <v>0.1242082475879948</v>
+        <v>0.0969151266504496</v>
       </c>
       <c r="W4">
-        <v>0.5650842266462481</v>
+        <v>0.4782352941176471</v>
       </c>
       <c r="X4">
-        <v>0.04877392094632489</v>
+        <v>0.03356757752275207</v>
       </c>
       <c r="Y4">
-        <v>0.5163103056999232</v>
+        <v>0.444667716594895</v>
       </c>
       <c r="Z4">
-        <v>3.388853126997087</v>
+        <v>4.648856314266382</v>
       </c>
       <c r="AA4">
-        <v>0.3960186668480808</v>
+        <v>0.4560829545059049</v>
       </c>
       <c r="AB4">
-        <v>0.04083433035127985</v>
+        <v>0.02884136835863384</v>
       </c>
       <c r="AC4">
-        <v>0.355184336496801</v>
+        <v>0.4272415861472711</v>
       </c>
       <c r="AD4">
-        <v>2611.6</v>
+        <v>2455</v>
       </c>
       <c r="AE4">
-        <v>406.7974358618235</v>
+        <v>179.1466031398605</v>
       </c>
       <c r="AF4">
-        <v>3018.397435861823</v>
+        <v>2634.14660313986</v>
       </c>
       <c r="AG4">
-        <v>2088.897435861823</v>
+        <v>1833.34660313986</v>
       </c>
       <c r="AH4">
-        <v>0.2874172211277393</v>
+        <v>0.2417303237356864</v>
       </c>
       <c r="AI4">
-        <v>0.7474245622924123</v>
+        <v>0.6856995047220981</v>
       </c>
       <c r="AJ4">
-        <v>0.218223206065029</v>
+        <v>0.1815869476256357</v>
       </c>
       <c r="AK4">
-        <v>0.6719094080640702</v>
+        <v>0.6029264659037209</v>
       </c>
       <c r="AL4">
-        <v>130.4</v>
+        <v>112.2</v>
       </c>
       <c r="AM4">
-        <v>130.4</v>
+        <v>112.2</v>
       </c>
       <c r="AN4">
-        <v>2.384587289992695</v>
+        <v>2.573375262054507</v>
       </c>
       <c r="AO4">
-        <v>6.669478527607362</v>
+        <v>6.778966131907309</v>
       </c>
       <c r="AP4">
-        <v>1.90732052215287</v>
+        <v>1.921746963458973</v>
       </c>
       <c r="AQ4">
-        <v>6.669478527607362</v>
+        <v>6.778966131907309</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +969,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GAIN Capital Holdings, Inc. (NYSE:GCAP)</t>
+          <t>Global Brokerage, Inc. (OTCPK:GLBR)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -984,112 +978,115 @@
         </is>
       </c>
       <c r="D5">
-        <v>-0.0612</v>
+        <v>-0.125</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>-0.1015089163237311</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>-0.1015089163237311</v>
       </c>
       <c r="I5">
-        <v>0.06257425509750246</v>
+        <v>0.06943215721632894</v>
       </c>
       <c r="J5">
-        <v>0.06257425509750246</v>
+        <v>0.06943215721632894</v>
       </c>
       <c r="K5">
-        <v>-32</v>
+        <v>-37.6</v>
       </c>
       <c r="L5">
-        <v>-0.1325600662800331</v>
+        <v>-0.2578875171467764</v>
       </c>
       <c r="M5">
-        <v>67.97</v>
+        <v>-0</v>
       </c>
       <c r="N5">
-        <v>0.4483509234828496</v>
+        <v>-0</v>
       </c>
       <c r="O5">
-        <v>-2.1240625</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>8.970000000000001</v>
+        <v>-0</v>
       </c>
       <c r="Q5">
-        <v>0.0591688654353562</v>
+        <v>-0</v>
       </c>
       <c r="R5">
-        <v>-0.2803125</v>
+        <v>0</v>
       </c>
       <c r="S5">
-        <v>59</v>
-      </c>
-      <c r="T5">
-        <v>0.8680300132411358</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>200.7</v>
+        <v>87</v>
       </c>
       <c r="V5">
-        <v>1.323878627968338</v>
+        <v>127.007299270073</v>
       </c>
       <c r="W5">
-        <v>-0.08958566629339305</v>
+        <v>0.3424408014571949</v>
       </c>
       <c r="X5">
-        <v>0.06308746022940798</v>
+        <v>5.20428970796154</v>
       </c>
       <c r="Y5">
-        <v>-0.152673126522801</v>
+        <v>-4.861848906504346</v>
       </c>
       <c r="Z5">
-        <v>1.650340170655278</v>
+        <v>6.455910161657617</v>
       </c>
       <c r="AA5">
-        <v>0.1032688068362391</v>
+        <v>0.4482477693187072</v>
       </c>
       <c r="AB5">
-        <v>0.04233421970987208</v>
+        <v>0.03623621826118929</v>
       </c>
       <c r="AC5">
-        <v>0.06093458712636698</v>
+        <v>0.412011551057518</v>
       </c>
       <c r="AD5">
-        <v>146.1</v>
+        <v>218.4</v>
       </c>
       <c r="AE5">
-        <v>42.47287409731454</v>
+        <v>28.28395738929621</v>
       </c>
       <c r="AF5">
-        <v>188.5728740973145</v>
+        <v>246.6839573892962</v>
       </c>
       <c r="AG5">
-        <v>-12.12712590268546</v>
+        <v>159.6839573892962</v>
       </c>
       <c r="AH5">
-        <v>0.554344242167201</v>
+        <v>0.997230857067801</v>
       </c>
       <c r="AI5">
-        <v>0.4270481389573684</v>
+        <v>1.919959210486204</v>
       </c>
       <c r="AJ5">
-        <v>-0.08694970962040972</v>
+        <v>0.9957285997792131</v>
       </c>
       <c r="AK5">
-        <v>-0.05034658198077551</v>
+        <v>3.849294219709575</v>
       </c>
       <c r="AL5">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="AM5">
-        <v>0</v>
+        <v>31.6</v>
       </c>
       <c r="AN5">
-        <v>6.190677966101695</v>
+        <v>12.54451464675474</v>
+      </c>
+      <c r="AO5">
+        <v>0.2712025316455696</v>
       </c>
       <c r="AP5">
-        <v>-0.5138612670629433</v>
+        <v>9.171967684623562</v>
+      </c>
+      <c r="AQ5">
+        <v>0.2712025316455696</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1097,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Greenhill &amp; Co., Inc. (NYSE:GHL)</t>
+          <t>PJT Partners Inc. (NYSE:PJT)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1109,7 +1106,10 @@
         </is>
       </c>
       <c r="D6">
-        <v>-0.0138</v>
+        <v>0.167</v>
+      </c>
+      <c r="E6">
+        <v>0.0413</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1118,91 +1118,91 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.03001887296396339</v>
+        <v>-0.01640832817781425</v>
       </c>
       <c r="J6">
-        <v>0.03001887296396339</v>
+        <v>-0.01371418131577946</v>
       </c>
       <c r="K6">
-        <v>-2.03</v>
+        <v>88.2</v>
       </c>
       <c r="L6">
-        <v>-0.007948316366483946</v>
+        <v>0.09034108368329408</v>
       </c>
       <c r="M6">
-        <v>69.64999999999999</v>
+        <v>63.18</v>
       </c>
       <c r="N6">
-        <v>0.2169106197446278</v>
+        <v>0.03528032164395801</v>
       </c>
       <c r="O6">
-        <v>-34.31034482758621</v>
+        <v>0.7163265306122448</v>
       </c>
       <c r="P6">
-        <v>5.85</v>
+        <v>4.78</v>
       </c>
       <c r="Q6">
-        <v>0.01821862348178137</v>
+        <v>0.002669198123743579</v>
       </c>
       <c r="R6">
-        <v>-2.881773399014778</v>
+        <v>0.05419501133786848</v>
       </c>
       <c r="S6">
-        <v>63.79999999999999</v>
+        <v>58.4</v>
       </c>
       <c r="T6">
-        <v>0.9160086145010767</v>
+        <v>0.9243431465653688</v>
       </c>
       <c r="U6">
-        <v>107.8</v>
+        <v>138.5</v>
       </c>
       <c r="V6">
-        <v>0.3357209592027405</v>
+        <v>0.07733973643064553</v>
       </c>
       <c r="W6">
-        <v>-0.03237639553429027</v>
+        <v>16.0948905109489</v>
       </c>
       <c r="X6">
-        <v>0.06467605399383462</v>
+        <v>0.03060112947021025</v>
       </c>
       <c r="Y6">
-        <v>-0.09705244952812489</v>
+        <v>16.06428938147869</v>
       </c>
       <c r="Z6">
-        <v>2.532074784067862</v>
+        <v>-20.24563263153876</v>
       </c>
       <c r="AA6">
-        <v>0.07601003127818819</v>
+        <v>0.2776522767615839</v>
       </c>
       <c r="AB6">
-        <v>0.04620987590258624</v>
+        <v>0.02941240961124019</v>
       </c>
       <c r="AC6">
-        <v>0.02980015537560195</v>
+        <v>0.2482398671503437</v>
       </c>
       <c r="AD6">
-        <v>388.2</v>
+        <v>0.139</v>
       </c>
       <c r="AE6">
-        <v>41.16589922501876</v>
+        <v>201.0972540000002</v>
       </c>
       <c r="AF6">
-        <v>429.3658992250187</v>
+        <v>201.2362540000003</v>
       </c>
       <c r="AG6">
-        <v>321.5658992250187</v>
+        <v>62.73625400000026</v>
       </c>
       <c r="AH6">
-        <v>0.5721324575419224</v>
+        <v>0.1010203773128721</v>
       </c>
       <c r="AI6">
-        <v>0.9379595552047888</v>
+        <v>0.2280203822652256</v>
       </c>
       <c r="AJ6">
-        <v>0.5003624738962971</v>
+        <v>0.03384679089206542</v>
       </c>
       <c r="AK6">
-        <v>0.9188492362744761</v>
+        <v>0.08431881331416982</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1211,10 +1211,10 @@
         <v>0</v>
       </c>
       <c r="AN6">
-        <v>24.41509433962264</v>
+        <v>0.005743801652892563</v>
       </c>
       <c r="AP6">
-        <v>20.22427039151061</v>
+        <v>2.592407190082656</v>
       </c>
     </row>
     <row r="7">
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="D7">
-        <v>0.125</v>
+        <v>0.286</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1243,25 +1243,25 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.005895664003460543</v>
+        <v>0.02109683924292302</v>
       </c>
       <c r="J7">
-        <v>0.005895664003460543</v>
+        <v>0.02109683924292302</v>
       </c>
       <c r="K7">
-        <v>8.449999999999999</v>
+        <v>2.09</v>
       </c>
       <c r="L7">
-        <v>0.3118081180811808</v>
+        <v>0.05694822888283378</v>
       </c>
       <c r="M7">
-        <v>-0</v>
+        <v>0.172</v>
       </c>
       <c r="N7">
-        <v>-0</v>
+        <v>0.001323076923076923</v>
       </c>
       <c r="O7">
-        <v>-0</v>
+        <v>0.08229665071770335</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1273,58 +1273,61 @@
         <v>-0</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.172</v>
+      </c>
+      <c r="T7">
+        <v>1</v>
       </c>
       <c r="U7">
-        <v>4.23</v>
+        <v>4.54</v>
       </c>
       <c r="V7">
-        <v>0.01856892010535558</v>
+        <v>0.03492307692307692</v>
       </c>
       <c r="W7">
-        <v>0.7161016949152541</v>
+        <v>0.1029556650246305</v>
       </c>
       <c r="X7">
-        <v>0.04231283889461769</v>
+        <v>0.06003618904307462</v>
       </c>
       <c r="Y7">
-        <v>0.6737888560206364</v>
+        <v>0.04291947598155592</v>
       </c>
       <c r="Z7">
-        <v>3.82167175503016</v>
+        <v>1.906619293950938</v>
       </c>
       <c r="AA7">
-        <v>0.0225312925991732</v>
+        <v>0.04022364074193833</v>
       </c>
       <c r="AB7">
-        <v>0.04199002938869919</v>
+        <v>0.03187016903122178</v>
       </c>
       <c r="AC7">
-        <v>-0.01945873678952599</v>
+        <v>0.008353471710716549</v>
       </c>
       <c r="AD7">
-        <v>2.82</v>
+        <v>277.7</v>
       </c>
       <c r="AE7">
-        <v>2.631137527531096</v>
+        <v>3.178729998923626</v>
       </c>
       <c r="AF7">
-        <v>5.451137527531096</v>
+        <v>280.8787299989236</v>
       </c>
       <c r="AG7">
-        <v>1.221137527531096</v>
+        <v>276.3387299989236</v>
       </c>
       <c r="AH7">
-        <v>0.02337025056046163</v>
+        <v>0.683604941048322</v>
       </c>
       <c r="AI7">
-        <v>0.2116853098898318</v>
+        <v>0.8855534858843681</v>
       </c>
       <c r="AJ7">
-        <v>0.005331986124574638</v>
+        <v>0.6800698766756879</v>
       </c>
       <c r="AK7">
-        <v>0.05674130960637863</v>
+        <v>0.883891544722802</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1333,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="AN7">
-        <v>4.110787172011661</v>
+        <v>196.9503546099291</v>
       </c>
       <c r="AP7">
-        <v>1.780083859374775</v>
+        <v>195.9849148928536</v>
       </c>
     </row>
     <row r="8">
@@ -1347,7 +1350,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>PJT Partners Inc. (NYSE:PJT)</t>
+          <t>National Holdings Corporation (NasdaqCM:NHLD)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1355,6 +1358,9 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D8">
+        <v>0.0711</v>
+      </c>
       <c r="G8">
         <v>0</v>
       </c>
@@ -1362,91 +1368,91 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-0.008878073204178872</v>
+        <v>0.00303387304709051</v>
       </c>
       <c r="J8">
-        <v>-0.006800604074401016</v>
+        <v>0.00303387304709051</v>
       </c>
       <c r="K8">
-        <v>20.2</v>
+        <v>-5.94</v>
       </c>
       <c r="L8">
-        <v>0.03134212567882079</v>
+        <v>-0.02584856396866841</v>
       </c>
       <c r="M8">
-        <v>87.35000000000001</v>
+        <v>0.373</v>
       </c>
       <c r="N8">
-        <v>0.08426586918772913</v>
+        <v>0.009031476997578693</v>
       </c>
       <c r="O8">
-        <v>4.324257425742575</v>
+        <v>-0.06279461279461279</v>
       </c>
       <c r="P8">
-        <v>4.65</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>0.00448581902373143</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.2301980198019802</v>
+        <v>0</v>
       </c>
       <c r="S8">
-        <v>82.7</v>
+        <v>0.373</v>
       </c>
       <c r="T8">
-        <v>0.9467658843732112</v>
+        <v>1</v>
       </c>
       <c r="U8">
-        <v>108</v>
+        <v>27.3</v>
       </c>
       <c r="V8">
-        <v>0.1041867644221493</v>
+        <v>0.6610169491525424</v>
       </c>
       <c r="W8">
-        <v>-0.1311688311688312</v>
+        <v>-0.119277108433735</v>
       </c>
       <c r="X8">
-        <v>0.0474892938670603</v>
+        <v>0.03769721425326007</v>
       </c>
       <c r="Y8">
-        <v>-0.1786581250358915</v>
+        <v>-0.156974322686995</v>
       </c>
       <c r="Z8">
-        <v>-2.807173010962283</v>
+        <v>7.024498348141256</v>
       </c>
       <c r="AA8">
-        <v>0.01909047221589867</v>
+        <v>0.02131143620775757</v>
       </c>
       <c r="AB8">
-        <v>0.04098517746849391</v>
+        <v>0.03057835147362272</v>
       </c>
       <c r="AC8">
-        <v>-0.02189470525259524</v>
+        <v>-0.009266915265865153</v>
       </c>
       <c r="AD8">
-        <v>176.8</v>
+        <v>6.57</v>
       </c>
       <c r="AE8">
-        <v>163.1095909004664</v>
+        <v>18.464079868893</v>
       </c>
       <c r="AF8">
-        <v>339.9095909004664</v>
+        <v>25.034079868893</v>
       </c>
       <c r="AG8">
-        <v>231.9095909004664</v>
+        <v>-2.265920131106999</v>
       </c>
       <c r="AH8">
-        <v>0.246935868189708</v>
+        <v>0.3773939416717921</v>
       </c>
       <c r="AI8">
-        <v>0.38886381574913</v>
+        <v>0.3494716469411093</v>
       </c>
       <c r="AJ8">
-        <v>0.1828205262018104</v>
+        <v>-0.05804978979183657</v>
       </c>
       <c r="AK8">
-        <v>0.3027107265787987</v>
+        <v>-0.05111011975004089</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1455,10 +1461,10 @@
         <v>0</v>
       </c>
       <c r="AN8">
-        <v>6.572490706319703</v>
+        <v>1.496583143507973</v>
       </c>
       <c r="AP8">
-        <v>8.621174382916967</v>
+        <v>-0.5161549273592252</v>
       </c>
     </row>
     <row r="9">
@@ -1469,7 +1475,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Moelis &amp; Company (NYSE:MC)</t>
+          <t>Piper Sandler Companies (NYSE:PIPR)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1478,10 +1484,10 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.0755</v>
+        <v>0.122</v>
       </c>
       <c r="E9">
-        <v>0.418</v>
+        <v>-0.0634</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1490,91 +1496,91 @@
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.00939110598415843</v>
+        <v>0.004395002025121907</v>
       </c>
       <c r="J9">
-        <v>0.008243526864429359</v>
+        <v>0.003344943737809544</v>
       </c>
       <c r="K9">
-        <v>122.9</v>
+        <v>37</v>
       </c>
       <c r="L9">
-        <v>0.1614343885459083</v>
+        <v>0.03329733621310295</v>
       </c>
       <c r="M9">
-        <v>149.7</v>
+        <v>39.6</v>
       </c>
       <c r="N9">
-        <v>0.0928717662386004</v>
+        <v>0.02863547617325909</v>
       </c>
       <c r="O9">
-        <v>1.218063466232709</v>
+        <v>1.07027027027027</v>
       </c>
       <c r="P9">
-        <v>98.8</v>
+        <v>17.6</v>
       </c>
       <c r="Q9">
-        <v>0.06129412494571623</v>
+        <v>0.01272687829922626</v>
       </c>
       <c r="R9">
-        <v>0.8039056143205858</v>
+        <v>0.4756756756756757</v>
       </c>
       <c r="S9">
-        <v>50.89999999999999</v>
+        <v>22</v>
       </c>
       <c r="T9">
-        <v>0.3400133600534402</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="U9">
-        <v>48.9</v>
+        <v>371.8</v>
       </c>
       <c r="V9">
-        <v>0.03033686953284943</v>
+        <v>0.2688553040711548</v>
       </c>
       <c r="W9">
-        <v>0.3317139001349528</v>
+        <v>0.0531075068178556</v>
       </c>
       <c r="X9">
-        <v>0.04314089736354731</v>
+        <v>0.03249538222518362</v>
       </c>
       <c r="Y9">
-        <v>0.2885730027714055</v>
+        <v>0.02061212459267198</v>
       </c>
       <c r="Z9">
-        <v>2.198048056072997</v>
+        <v>1.580471406855912</v>
       </c>
       <c r="AA9">
-        <v>0.01811966819954448</v>
+        <v>0.005286587935149725</v>
       </c>
       <c r="AB9">
-        <v>0.0419576799788766</v>
+        <v>0.02981419879928666</v>
       </c>
       <c r="AC9">
-        <v>-0.02383801177933212</v>
+        <v>-0.02452761086413694</v>
       </c>
       <c r="AD9">
-        <v>54.2</v>
+        <v>276.1</v>
       </c>
       <c r="AE9">
-        <v>62.75275507130093</v>
+        <v>61.58136874842268</v>
       </c>
       <c r="AF9">
-        <v>116.9527550713009</v>
+        <v>337.6813687484227</v>
       </c>
       <c r="AG9">
-        <v>68.05275507130094</v>
+        <v>-34.11863125157731</v>
       </c>
       <c r="AH9">
-        <v>0.06764760892923909</v>
+        <v>0.1962600402874624</v>
       </c>
       <c r="AI9">
-        <v>0.2428659245319537</v>
+        <v>0.2823230739742831</v>
       </c>
       <c r="AJ9">
-        <v>0.04050873149013802</v>
+        <v>-0.02529589453273445</v>
       </c>
       <c r="AK9">
-        <v>0.1572918565145526</v>
+        <v>-0.04139197189836107</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1583,10 +1589,10 @@
         <v>0</v>
       </c>
       <c r="AN9">
-        <v>2.751269035532995</v>
+        <v>16.05232558139535</v>
       </c>
       <c r="AP9">
-        <v>3.454454572147256</v>
+        <v>-1.98364135183589</v>
       </c>
     </row>
     <row r="10">
@@ -1597,7 +1603,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Houlihan Lokey, Inc. (NYSE:HLI)</t>
+          <t>Raymond James Financial, Inc. (NYSE:RJF)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1605,6 +1611,15 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D10">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.103</v>
+      </c>
+      <c r="F10">
+        <v>0.067</v>
+      </c>
       <c r="G10">
         <v>0</v>
       </c>
@@ -1612,91 +1627,91 @@
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.001784495470210512</v>
+        <v>0.003377972948720885</v>
       </c>
       <c r="J10">
-        <v>0.001333327235091708</v>
+        <v>0.002626598737693616</v>
       </c>
       <c r="K10">
-        <v>165.2</v>
+        <v>818</v>
       </c>
       <c r="L10">
-        <v>0.1485745120964115</v>
+        <v>0.1054531391001676</v>
       </c>
       <c r="M10">
-        <v>145.8</v>
+        <v>477</v>
       </c>
       <c r="N10">
-        <v>0.0452738790212396</v>
+        <v>0.03641137989206354</v>
       </c>
       <c r="O10">
-        <v>0.8825665859564166</v>
+        <v>0.5831295843520783</v>
       </c>
       <c r="P10">
-        <v>75.59999999999999</v>
+        <v>205</v>
       </c>
       <c r="Q10">
-        <v>0.02347534467767979</v>
+        <v>0.01564849659931452</v>
       </c>
       <c r="R10">
-        <v>0.4576271186440678</v>
+        <v>0.2506112469437653</v>
       </c>
       <c r="S10">
-        <v>70.20000000000002</v>
+        <v>272</v>
       </c>
       <c r="T10">
-        <v>0.4814814814814816</v>
+        <v>0.570230607966457</v>
       </c>
       <c r="U10">
-        <v>220.2</v>
+        <v>5390</v>
       </c>
       <c r="V10">
-        <v>0.06837659918022605</v>
+        <v>0.4114409593673428</v>
       </c>
       <c r="W10">
-        <v>0.1994446456597851</v>
+        <v>0.1242972192675885</v>
       </c>
       <c r="X10">
-        <v>0.04345457437556306</v>
+        <v>0.03329740346726166</v>
       </c>
       <c r="Y10">
-        <v>0.155990071284222</v>
+        <v>0.09099981580032684</v>
       </c>
       <c r="Z10">
-        <v>6.514564564264238</v>
+        <v>1.350456097806002</v>
       </c>
       <c r="AA10">
-        <v>0.00868604635829685</v>
+        <v>0.003547106281807892</v>
       </c>
       <c r="AB10">
-        <v>0.04159460598389086</v>
+        <v>0.0297070762313814</v>
       </c>
       <c r="AC10">
-        <v>-0.03290855962559401</v>
+        <v>-0.02615996994957351</v>
       </c>
       <c r="AD10">
-        <v>159.9</v>
+        <v>3576</v>
       </c>
       <c r="AE10">
-        <v>133.0790974333647</v>
+        <v>353.9853191838605</v>
       </c>
       <c r="AF10">
-        <v>292.9790974333647</v>
+        <v>3929.985319183861</v>
       </c>
       <c r="AG10">
-        <v>72.77909743336471</v>
+        <v>-1460.014680816139</v>
       </c>
       <c r="AH10">
-        <v>0.0833895487245869</v>
+        <v>0.2307645025040718</v>
       </c>
       <c r="AI10">
-        <v>0.2472649724921333</v>
+        <v>0.3538619227593812</v>
       </c>
       <c r="AJ10">
-        <v>0.02209995122648726</v>
+        <v>-0.1254277400236875</v>
       </c>
       <c r="AK10">
-        <v>0.07544384202684763</v>
+        <v>-0.2554265973910169</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1705,10 +1720,10 @@
         <v>0</v>
       </c>
       <c r="AN10">
-        <v>5.590909090909091</v>
+        <v>36.8659793814433</v>
       </c>
       <c r="AP10">
-        <v>2.544723686481284</v>
+        <v>-15.05169774037257</v>
       </c>
     </row>
     <row r="11">
@@ -1719,7 +1734,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Piper Jaffray Companies (NYSE:PJC)</t>
+          <t>JMP Group LLC (NYSE:JMP)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1728,10 +1743,10 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.0351</v>
-      </c>
-      <c r="E11">
-        <v>0.0325</v>
+        <v>-0.122</v>
+      </c>
+      <c r="F11">
+        <v>0.1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1740,91 +1755,91 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.001930693133604936</v>
+        <v>0.001264054655609936</v>
       </c>
       <c r="J11">
-        <v>0.001448019850203702</v>
+        <v>0.001264054655609936</v>
       </c>
       <c r="K11">
-        <v>91.2</v>
+        <v>-20.2</v>
       </c>
       <c r="L11">
-        <v>0.112039312039312</v>
+        <v>-0.2376470588235294</v>
       </c>
       <c r="M11">
-        <v>111.2</v>
+        <v>1.174</v>
       </c>
       <c r="N11">
-        <v>0.1023941068139963</v>
+        <v>0.01550858652575958</v>
       </c>
       <c r="O11">
-        <v>1.219298245614035</v>
+        <v>-0.05811881188118811</v>
       </c>
       <c r="P11">
-        <v>21.6</v>
+        <v>0.74</v>
       </c>
       <c r="Q11">
-        <v>0.01988950276243094</v>
+        <v>0.009775429326287978</v>
       </c>
       <c r="R11">
-        <v>0.2368421052631579</v>
+        <v>-0.03663366336633663</v>
       </c>
       <c r="S11">
-        <v>89.59999999999999</v>
+        <v>0.4339999999999999</v>
       </c>
       <c r="T11">
-        <v>0.8057553956834532</v>
+        <v>0.3696763202725724</v>
       </c>
       <c r="U11">
-        <v>24</v>
+        <v>56.7</v>
       </c>
       <c r="V11">
-        <v>0.02209944751381215</v>
+        <v>0.7490092470277411</v>
       </c>
       <c r="W11">
-        <v>0.130248500428449</v>
+        <v>-0.2813370473537605</v>
       </c>
       <c r="X11">
-        <v>0.04468615340192014</v>
+        <v>0.05160819276486632</v>
       </c>
       <c r="Y11">
-        <v>0.08556234702652887</v>
+        <v>-0.3329452401186268</v>
       </c>
       <c r="Z11">
-        <v>1.030585760999214</v>
+        <v>0.5675642628459314</v>
       </c>
       <c r="AA11">
-        <v>0.001492308639264151</v>
+        <v>0.0007174322488082208</v>
       </c>
       <c r="AB11">
-        <v>0.04138225777123284</v>
+        <v>0.0286197588063281</v>
       </c>
       <c r="AC11">
-        <v>-0.03988994913196869</v>
+        <v>-0.02790232655751988</v>
       </c>
       <c r="AD11">
-        <v>116.2</v>
+        <v>91.40000000000001</v>
       </c>
       <c r="AE11">
-        <v>61.14207894622791</v>
+        <v>27.76277677136578</v>
       </c>
       <c r="AF11">
-        <v>177.3420789462279</v>
+        <v>119.1627767713658</v>
       </c>
       <c r="AG11">
-        <v>153.3420789462279</v>
+        <v>62.46277677136578</v>
       </c>
       <c r="AH11">
-        <v>0.140375344019374</v>
+        <v>0.6115214960278459</v>
       </c>
       <c r="AI11">
-        <v>0.1887738296172048</v>
+        <v>0.6909478033589828</v>
       </c>
       <c r="AJ11">
-        <v>0.1237286150056405</v>
+        <v>0.4520955515734191</v>
       </c>
       <c r="AK11">
-        <v>0.1675060415867502</v>
+        <v>0.5395756607906118</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1833,10 +1848,10 @@
         <v>0</v>
       </c>
       <c r="AN11">
-        <v>8.420289855072463</v>
+        <v>16.14840989399293</v>
       </c>
       <c r="AP11">
-        <v>11.11174485117593</v>
+        <v>11.0358262846936</v>
       </c>
     </row>
     <row r="12">
@@ -1847,7 +1862,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>JMP Group LLC (NYSE:JMP)</t>
+          <t>Morgan Group Holding Co. (OTCPK:MGHL)</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1855,12 +1870,6 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D12">
-        <v>-0.105</v>
-      </c>
-      <c r="F12">
-        <v>0.1</v>
-      </c>
       <c r="G12">
         <v>0</v>
       </c>
@@ -1868,103 +1877,94 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>-0.01160836129297432</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>-0.01160836129297432</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>-0.308</v>
+        <v>-0.5570000000000001</v>
       </c>
       <c r="L12">
-        <v>-0.002841328413284133</v>
+        <v>-0.08771653543307088</v>
       </c>
       <c r="M12">
-        <v>14.55</v>
+        <v>-0</v>
       </c>
       <c r="N12">
-        <v>0.2342995169082126</v>
+        <v>-0</v>
       </c>
       <c r="O12">
-        <v>-47.24025974025975</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>4.45</v>
+        <v>-0</v>
       </c>
       <c r="Q12">
-        <v>0.07165861513687601</v>
+        <v>-0</v>
       </c>
       <c r="R12">
-        <v>-14.44805194805195</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>10.1</v>
-      </c>
-      <c r="T12">
-        <v>0.6941580756013747</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>48</v>
+        <v>5.41</v>
       </c>
       <c r="V12">
-        <v>0.7729468599033816</v>
+        <v>1.288095238095238</v>
       </c>
       <c r="W12">
-        <v>-0.003552479815455594</v>
+        <v>-0.1175105485232068</v>
       </c>
       <c r="X12">
-        <v>0.08466754851213748</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="Y12">
-        <v>-0.08822002832759307</v>
+        <v>-0.1464967817483806</v>
       </c>
       <c r="Z12">
-        <v>0.08731783153528469</v>
+        <v>-9.769230769230777</v>
       </c>
       <c r="AA12">
-        <v>-0.001013616935780651</v>
+        <v>-0</v>
       </c>
       <c r="AB12">
-        <v>0.0392402973465908</v>
+        <v>0.02898623322517386</v>
       </c>
       <c r="AC12">
-        <v>-0.04025391428237145</v>
+        <v>-0.02898623322517386</v>
       </c>
       <c r="AD12">
-        <v>124.4</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>31.54173182079208</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>155.9417318207921</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>107.9417318207921</v>
+        <v>-5.41</v>
       </c>
       <c r="AH12">
-        <v>0.7151921355539415</v>
+        <v>0</v>
       </c>
       <c r="AI12">
-        <v>0.6856337690202917</v>
+        <v>0</v>
       </c>
       <c r="AJ12">
-        <v>0.6347955332197656</v>
+        <v>4.471074380165289</v>
       </c>
       <c r="AK12">
-        <v>0.6015419642103832</v>
+        <v>23.52173913043474</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
         <v>0</v>
-      </c>
-      <c r="AN12">
-        <v>24.63366336633663</v>
-      </c>
-      <c r="AP12">
-        <v>21.37460036055289</v>
       </c>
     </row>
     <row r="13">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Raymond James Financial, Inc. (NYSE:RJF)</t>
+          <t>Armada Mercantile Ltd. (OTCPK:AAMT.F)</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1983,14 +1983,8 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D13">
-        <v>0.09699999999999999</v>
-      </c>
       <c r="E13">
-        <v>0.166</v>
-      </c>
-      <c r="F13">
-        <v>0.127</v>
+        <v>-0.634</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1999,103 +1993,94 @@
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.001445099131975356</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0.001086714547245467</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>1034</v>
+        <v>0.002</v>
       </c>
       <c r="L13">
-        <v>0.134407903288704</v>
+        <v>0.008547008547008546</v>
       </c>
       <c r="M13">
-        <v>969</v>
+        <v>-0</v>
       </c>
       <c r="N13">
-        <v>0.07755226174088421</v>
+        <v>-0</v>
       </c>
       <c r="O13">
-        <v>0.937137330754352</v>
+        <v>-0</v>
       </c>
       <c r="P13">
-        <v>191</v>
+        <v>-0</v>
       </c>
       <c r="Q13">
-        <v>0.01528635912539617</v>
+        <v>-0</v>
       </c>
       <c r="R13">
-        <v>0.1847195357833656</v>
+        <v>-0</v>
       </c>
       <c r="S13">
-        <v>778</v>
-      </c>
-      <c r="T13">
-        <v>0.8028895768833849</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>3957</v>
+        <v>0.093</v>
       </c>
       <c r="V13">
-        <v>0.3166917437654064</v>
+        <v>0.04208144796380091</v>
       </c>
       <c r="W13">
-        <v>0.1623743718592965</v>
+        <v>0.1052631578947369</v>
       </c>
       <c r="X13">
-        <v>0.04693360028139901</v>
+        <v>0.02914880053574374</v>
       </c>
       <c r="Y13">
-        <v>0.1154407715778975</v>
+        <v>0.07611435735899311</v>
       </c>
       <c r="Z13">
-        <v>1.249997103321299</v>
+        <v>13</v>
       </c>
       <c r="AA13">
-        <v>0.001358390036193951</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>0.04189364073386218</v>
+        <v>0.02906755444473989</v>
       </c>
       <c r="AC13">
-        <v>-0.04053525069766822</v>
+        <v>-0.02906755444473989</v>
       </c>
       <c r="AD13">
-        <v>3230</v>
+        <v>0.025</v>
       </c>
       <c r="AE13">
-        <v>459.4142618885679</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>3689.414261888568</v>
+        <v>0.025</v>
       </c>
       <c r="AG13">
-        <v>-267.585738111432</v>
+        <v>-0.068</v>
       </c>
       <c r="AH13">
-        <v>0.2279637554339968</v>
+        <v>0.01118568232662192</v>
       </c>
       <c r="AI13">
-        <v>0.3570718486866218</v>
+        <v>0.5434782608695653</v>
       </c>
       <c r="AJ13">
-        <v>-0.02188444010059424</v>
+        <v>-0.03174603174603175</v>
       </c>
       <c r="AK13">
-        <v>-0.04197150602605169</v>
+        <v>1.446808510638298</v>
       </c>
       <c r="AL13">
         <v>0</v>
       </c>
       <c r="AM13">
         <v>0</v>
-      </c>
-      <c r="AN13">
-        <v>31.35922330097087</v>
-      </c>
-      <c r="AP13">
-        <v>-2.597919787489631</v>
       </c>
     </row>
     <row r="14">
@@ -2106,7 +2091,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Cowen Inc. (NasdaqGS:COWN)</t>
+          <t>Finotec Group, Inc. (OTCPK:FTGI)</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -2114,38 +2099,17 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
-      <c r="D14">
-        <v>0.195</v>
-      </c>
-      <c r="E14">
-        <v>-0.0213</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0.00378675243757102</v>
-      </c>
-      <c r="J14">
-        <v>0.002975553635577595</v>
-      </c>
       <c r="K14">
-        <v>24.5</v>
-      </c>
-      <c r="L14">
-        <v>0.0281965703763379</v>
+        <v>-0.003</v>
       </c>
       <c r="M14">
-        <v>25.2</v>
+        <v>-0</v>
       </c>
       <c r="N14">
-        <v>0.05542115680668572</v>
+        <v>-0</v>
       </c>
       <c r="O14">
-        <v>1.028571428571428</v>
+        <v>0</v>
       </c>
       <c r="P14">
         <v>-0</v>
@@ -2154,76 +2118,67 @@
         <v>-0</v>
       </c>
       <c r="R14">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S14">
-        <v>25.2</v>
-      </c>
-      <c r="T14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U14">
-        <v>264.4</v>
+        <v>0</v>
       </c>
       <c r="V14">
-        <v>0.5814822960193534</v>
+        <v>0</v>
       </c>
       <c r="W14">
-        <v>0.03465836752015844</v>
+        <v>-0.001734104046242775</v>
       </c>
       <c r="X14">
-        <v>0.1199589608613734</v>
+        <v>0.02904744282810917</v>
       </c>
       <c r="Y14">
-        <v>-0.08530059334121494</v>
+        <v>-0.03078154687435194</v>
       </c>
       <c r="Z14">
-        <v>0.5300599783158084</v>
+        <v>0</v>
       </c>
       <c r="AA14">
-        <v>0.001577221895551785</v>
+        <v>0</v>
       </c>
       <c r="AB14">
-        <v>0.04254044670449469</v>
+        <v>0.02926458270731874</v>
       </c>
       <c r="AC14">
-        <v>-0.04096322480894291</v>
+        <v>-0.02926458270731874</v>
       </c>
       <c r="AD14">
-        <v>1965.6</v>
+        <v>0.023</v>
       </c>
       <c r="AE14">
-        <v>118.5484540349727</v>
+        <v>0</v>
       </c>
       <c r="AF14">
-        <v>2084.148454034972</v>
+        <v>0.023</v>
       </c>
       <c r="AG14">
-        <v>1819.748454034972</v>
+        <v>0.023</v>
       </c>
       <c r="AH14">
-        <v>0.8209030557624073</v>
+        <v>0.004241194910566107</v>
       </c>
       <c r="AI14">
-        <v>0.6250541845777684</v>
+        <v>-22.99999999999998</v>
       </c>
       <c r="AJ14">
-        <v>0.8000834007940071</v>
+        <v>0.004241194910566107</v>
       </c>
       <c r="AK14">
-        <v>0.5927618920256444</v>
+        <v>-22.99999999999998</v>
       </c>
       <c r="AL14">
         <v>0</v>
       </c>
       <c r="AM14">
         <v>0</v>
-      </c>
-      <c r="AN14">
-        <v>72.8</v>
-      </c>
-      <c r="AP14">
-        <v>67.39809089018416</v>
       </c>
     </row>
     <row r="15">
@@ -2234,7 +2189,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Small Business Development Group, Inc. (OTCPK:SBDG)</t>
+          <t>B. Riley Financial, Inc. (NasdaqGM:RILY)</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -2242,74 +2197,119 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D15">
+        <v>0.377</v>
+      </c>
+      <c r="E15">
+        <v>0.384</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>-0.002504026181295222</v>
+      </c>
+      <c r="J15">
+        <v>-0.001755290567142067</v>
+      </c>
       <c r="K15">
-        <v>0</v>
+        <v>50.7</v>
+      </c>
+      <c r="L15">
+        <v>0.09153276764758983</v>
       </c>
       <c r="M15">
+        <v>66.5</v>
+      </c>
+      <c r="N15">
+        <v>0.05913213587053175</v>
+      </c>
+      <c r="O15">
+        <v>1.31163708086785</v>
+      </c>
+      <c r="P15">
+        <v>25.8</v>
+      </c>
+      <c r="Q15">
+        <v>0.02294149030766495</v>
+      </c>
+      <c r="R15">
+        <v>0.5088757396449703</v>
+      </c>
+      <c r="S15">
+        <v>40.7</v>
+      </c>
+      <c r="T15">
+        <v>0.6120300751879699</v>
+      </c>
+      <c r="U15">
+        <v>169.7</v>
+      </c>
+      <c r="V15">
+        <v>0.1508980971011915</v>
+      </c>
+      <c r="W15">
+        <v>0.1696219471395116</v>
+      </c>
+      <c r="X15">
+        <v>0.05018657825940061</v>
+      </c>
+      <c r="Y15">
+        <v>0.119435368880111</v>
+      </c>
+      <c r="Z15">
+        <v>0.3704186933719135</v>
+      </c>
+      <c r="AA15">
+        <v>-0.0006501924383688093</v>
+      </c>
+      <c r="AB15">
+        <v>0.02862906305043181</v>
+      </c>
+      <c r="AC15">
+        <v>-0.02927925548880063</v>
+      </c>
+      <c r="AD15">
+        <v>1589.1</v>
+      </c>
+      <c r="AE15">
+        <v>69.93490050909712</v>
+      </c>
+      <c r="AF15">
+        <v>1659.034900509097</v>
+      </c>
+      <c r="AG15">
+        <v>1489.334900509097</v>
+      </c>
+      <c r="AH15">
+        <v>0.5959958686412781</v>
+      </c>
+      <c r="AI15">
+        <v>0.8057342301963411</v>
+      </c>
+      <c r="AJ15">
+        <v>0.5697674032429155</v>
+      </c>
+      <c r="AK15">
+        <v>0.7882852850004429</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>-0.785</v>
+      </c>
+      <c r="AN15">
+        <v>126.1190476190476</v>
+      </c>
+      <c r="AP15">
+        <v>118.2011825800871</v>
+      </c>
+      <c r="AQ15">
         <v>-0</v>
-      </c>
-      <c r="N15">
-        <v>-0</v>
-      </c>
-      <c r="P15">
-        <v>-0</v>
-      </c>
-      <c r="Q15">
-        <v>-0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0.04190534344985802</v>
-      </c>
-      <c r="Y15">
-        <v>-0.04190534344985802</v>
-      </c>
-      <c r="Z15">
-        <v>-0</v>
-      </c>
-      <c r="AA15">
-        <v>-0</v>
-      </c>
-      <c r="AB15">
-        <v>0.04190534344985802</v>
-      </c>
-      <c r="AC15">
-        <v>-0.04190534344985802</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AJ15">
-        <v>0</v>
-      </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
-        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2320,7 +2320,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>National Holdings Corporation (NasdaqCM:NHLD)</t>
+          <t>The Charles Schwab Corporation (NYSE:SCHW)</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -2329,7 +2329,13 @@
         </is>
       </c>
       <c r="D16">
-        <v>0.0293</v>
+        <v>0.103</v>
+      </c>
+      <c r="E16">
+        <v>0.169</v>
+      </c>
+      <c r="F16">
+        <v>0.0969</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -2338,97 +2344,103 @@
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>-0.0007414509578586735</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>-0.0005681443315299185</v>
       </c>
       <c r="K16">
-        <v>-0.819</v>
+        <v>3016</v>
       </c>
       <c r="L16">
-        <v>-0.00384687646782527</v>
+        <v>0.2979942693409742</v>
       </c>
       <c r="M16">
-        <v>0.425</v>
+        <v>1176</v>
       </c>
       <c r="N16">
-        <v>0.01332288401253919</v>
+        <v>0.01179937451274904</v>
       </c>
       <c r="O16">
-        <v>-0.518925518925519</v>
+        <v>0.389920424403183</v>
       </c>
       <c r="P16">
-        <v>-0</v>
+        <v>920</v>
       </c>
       <c r="Q16">
-        <v>-0</v>
+        <v>0.00923080319024585</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.3050397877984085</v>
       </c>
       <c r="S16">
-        <v>0.425</v>
+        <v>256</v>
       </c>
       <c r="T16">
-        <v>1</v>
+        <v>0.217687074829932</v>
       </c>
       <c r="U16">
-        <v>30.4</v>
+        <v>27465</v>
       </c>
       <c r="V16">
-        <v>0.9529780564263323</v>
+        <v>0.2755695756740242</v>
       </c>
       <c r="W16">
-        <v>-0.01746268656716418</v>
+        <v>0.1624912450837778</v>
       </c>
       <c r="X16">
-        <v>0.04190534344985802</v>
+        <v>0.0304202845479541</v>
       </c>
       <c r="Y16">
-        <v>-0.05936803001702221</v>
+        <v>0.1320709605358237</v>
       </c>
       <c r="Z16">
-        <v>15.37184115523466</v>
+        <v>1.070946233055091</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>-0.0006084520316835687</v>
       </c>
       <c r="AB16">
-        <v>0.04190534344985802</v>
+        <v>0.02905736986621225</v>
       </c>
       <c r="AC16">
-        <v>-0.04190534344985802</v>
+        <v>-0.02966582189789582</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>9268</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>677.5211257224382</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>9945.521125722438</v>
       </c>
       <c r="AG16">
-        <v>-30.4</v>
+        <v>-17519.47887427756</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>0.09073401959369998</v>
       </c>
       <c r="AI16">
-        <v>0</v>
+        <v>0.2409486278029534</v>
       </c>
       <c r="AJ16">
-        <v>-20.26666666666667</v>
+        <v>-0.2132703205576842</v>
       </c>
       <c r="AK16">
-        <v>-1.433962264150943</v>
+        <v>-1.268468455777073</v>
       </c>
       <c r="AL16">
         <v>0</v>
       </c>
       <c r="AM16">
         <v>0</v>
+      </c>
+      <c r="AN16">
+        <v>72.40625</v>
+      </c>
+      <c r="AP16">
+        <v>-136.8709287052935</v>
       </c>
     </row>
     <row r="17">
@@ -2439,7 +2451,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Stifel Financial Corp. (NYSE:SF)</t>
+          <t>Virtu Financial, Inc. (NasdaqGS:VIRT)</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -2448,106 +2460,103 @@
         </is>
       </c>
       <c r="D17">
-        <v>0.0764</v>
+        <v>0.283</v>
       </c>
       <c r="E17">
-        <v>0.192</v>
-      </c>
-      <c r="F17">
-        <v>0.06</v>
+        <v>0.448</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.008187000267799073</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.003413525534722099</v>
+        <v>-0.002949926346832652</v>
       </c>
       <c r="J17">
-        <v>0.002496914711811912</v>
+        <v>-0.002405916752257528</v>
       </c>
       <c r="K17">
-        <v>431.8</v>
+        <v>519.2</v>
       </c>
       <c r="L17">
-        <v>0.1367450992811224</v>
+        <v>0.1986303990206205</v>
       </c>
       <c r="M17">
-        <v>362.3</v>
+        <v>135.5</v>
       </c>
       <c r="N17">
-        <v>0.08644096103834133</v>
+        <v>0.04379585636251979</v>
       </c>
       <c r="O17">
-        <v>0.8390458545622974</v>
+        <v>0.2609784283513097</v>
       </c>
       <c r="P17">
-        <v>40.3</v>
+        <v>119</v>
       </c>
       <c r="Q17">
-        <v>0.009615155202443154</v>
+        <v>0.03846278160250816</v>
       </c>
       <c r="R17">
-        <v>0.09333024548402037</v>
+        <v>0.2291987673343605</v>
       </c>
       <c r="S17">
-        <v>322</v>
+        <v>16.5</v>
       </c>
       <c r="T17">
-        <v>0.8887662158432238</v>
+        <v>0.1217712177121771</v>
       </c>
       <c r="U17">
-        <v>868.9</v>
+        <v>567.7</v>
       </c>
       <c r="V17">
-        <v>0.2073103810273662</v>
+        <v>0.1834900934096125</v>
       </c>
       <c r="W17">
-        <v>0.1433789347854961</v>
+        <v>0.5358101135190919</v>
       </c>
       <c r="X17">
-        <v>0.05393370493892993</v>
+        <v>0.04469192310785125</v>
       </c>
       <c r="Y17">
-        <v>0.08944522984656617</v>
+        <v>0.4911181904112407</v>
       </c>
       <c r="Z17">
-        <v>0.6834988214354388</v>
+        <v>0.8058007387897694</v>
       </c>
       <c r="AA17">
-        <v>0.00170663826274825</v>
+        <v>-0.001938689496435798</v>
       </c>
       <c r="AB17">
-        <v>0.04377792411461952</v>
+        <v>0.02867329426495701</v>
       </c>
       <c r="AC17">
-        <v>-0.04207128585187127</v>
+        <v>-0.03061198376139281</v>
       </c>
       <c r="AD17">
-        <v>2564.9</v>
+        <v>2962.2</v>
       </c>
       <c r="AE17">
-        <v>395.6055520950401</v>
+        <v>419.0540623899293</v>
       </c>
       <c r="AF17">
-        <v>2960.50555209504</v>
+        <v>3381.254062389929</v>
       </c>
       <c r="AG17">
-        <v>2091.60555209504</v>
+        <v>2813.554062389929</v>
       </c>
       <c r="AH17">
-        <v>0.4139521873924262</v>
+        <v>0.5221889749356688</v>
       </c>
       <c r="AI17">
-        <v>0.4541902719136394</v>
+        <v>0.6517384016681431</v>
       </c>
       <c r="AJ17">
-        <v>0.3329041849749901</v>
+        <v>0.4762718478510983</v>
       </c>
       <c r="AK17">
-        <v>0.3702411797002854</v>
+        <v>0.6089477179449289</v>
       </c>
       <c r="AL17">
         <v>0</v>
@@ -2556,10 +2565,10 @@
         <v>0</v>
       </c>
       <c r="AN17">
-        <v>28.53058954393771</v>
+        <v>38.92509855453351</v>
       </c>
       <c r="AP17">
-        <v>23.26591270406051</v>
+        <v>36.97180108265347</v>
       </c>
     </row>
     <row r="18">
@@ -2570,7 +2579,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>The Goldman Sachs Group, Inc. (NYSE:GS)</t>
+          <t>Interactive Brokers Group, Inc. (NasdaqGS:IBKR)</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -2579,13 +2588,13 @@
         </is>
       </c>
       <c r="D18">
-        <v>-0.0109</v>
+        <v>0.0837</v>
       </c>
       <c r="E18">
-        <v>0.0101</v>
+        <v>0.332</v>
       </c>
       <c r="F18">
-        <v>0.08349999999999999</v>
+        <v>0.1</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -2594,91 +2603,91 @@
         <v>0</v>
       </c>
       <c r="I18">
-        <v>-0.003682085751193498</v>
+        <v>-0.003938923018078771</v>
       </c>
       <c r="J18">
-        <v>-0.003050055899826373</v>
+        <v>-0.003660920798265388</v>
       </c>
       <c r="K18">
-        <v>9087</v>
+        <v>168</v>
       </c>
       <c r="L18">
-        <v>0.2694839857651246</v>
+        <v>0.07950780880265026</v>
       </c>
       <c r="M18">
-        <v>6613</v>
+        <v>48</v>
       </c>
       <c r="N18">
-        <v>0.08127153763340429</v>
+        <v>0.008680712541821142</v>
       </c>
       <c r="O18">
-        <v>0.7277429294596677</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="P18">
-        <v>1396</v>
+        <v>31</v>
       </c>
       <c r="Q18">
-        <v>0.01715636874886321</v>
+        <v>0.005606293516592821</v>
       </c>
       <c r="R18">
-        <v>0.1536260592054584</v>
+        <v>0.1845238095238095</v>
       </c>
       <c r="S18">
-        <v>5217</v>
+        <v>17</v>
       </c>
       <c r="T18">
-        <v>0.7889006502343868</v>
+        <v>0.3541666666666667</v>
       </c>
       <c r="U18">
-        <v>94094</v>
+        <v>3292</v>
       </c>
       <c r="V18">
-        <v>1.156383496458119</v>
+        <v>0.5953522018265666</v>
       </c>
       <c r="W18">
-        <v>0.1202636350401673</v>
+        <v>0.1195729537366548</v>
       </c>
       <c r="X18">
-        <v>0.1379145219983272</v>
+        <v>0.04596163972596155</v>
       </c>
       <c r="Y18">
-        <v>-0.01765088695815996</v>
+        <v>0.07361131401069325</v>
       </c>
       <c r="Z18">
-        <v>0.08321286558873552</v>
+        <v>0.7074899834442557</v>
       </c>
       <c r="AA18">
-        <v>-0.0002538038916303818</v>
+        <v>-0.002590064794955511</v>
       </c>
       <c r="AB18">
-        <v>0.04186174124644537</v>
+        <v>0.02866169560449482</v>
       </c>
       <c r="AC18">
-        <v>-0.04211554513807575</v>
+        <v>-0.03125176039945033</v>
       </c>
       <c r="AD18">
-        <v>456732</v>
+        <v>6395</v>
       </c>
       <c r="AE18">
-        <v>2025.799657651224</v>
+        <v>136.6147216860022</v>
       </c>
       <c r="AF18">
-        <v>458757.7996576512</v>
+        <v>6531.614721686003</v>
       </c>
       <c r="AG18">
-        <v>364663.7996576512</v>
+        <v>3239.614721686003</v>
       </c>
       <c r="AH18">
-        <v>0.8493517264429028</v>
+        <v>0.5415432049528636</v>
       </c>
       <c r="AI18">
-        <v>0.830431864186827</v>
+        <v>0.433199471020548</v>
       </c>
       <c r="AJ18">
-        <v>0.8175713454779036</v>
+        <v>0.3694346378744985</v>
       </c>
       <c r="AK18">
-        <v>0.7956206193541349</v>
+        <v>0.2748787227640305</v>
       </c>
       <c r="AL18">
         <v>0</v>
@@ -2687,10 +2696,10 @@
         <v>0</v>
       </c>
       <c r="AN18">
-        <v>1625.380782918149</v>
+        <v>336.578947368421</v>
       </c>
       <c r="AP18">
-        <v>1297.735941842175</v>
+        <v>170.5060379834738</v>
       </c>
     </row>
     <row r="19">
@@ -2701,7 +2710,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Morgan Stanley (NYSE:MS)</t>
+          <t>Cowen Inc. (NasdaqGS:COWN)</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -2710,13 +2719,10 @@
         </is>
       </c>
       <c r="D19">
-        <v>0.0275</v>
+        <v>0.241</v>
       </c>
       <c r="E19">
-        <v>0.09970000000000001</v>
-      </c>
-      <c r="F19">
-        <v>0.101</v>
+        <v>-0.0361</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2725,91 +2731,91 @@
         <v>0</v>
       </c>
       <c r="I19">
-        <v>-0.007246441462917946</v>
+        <v>0.002195694526006659</v>
       </c>
       <c r="J19">
-        <v>-0.005900723412825942</v>
+        <v>0.001532973149488722</v>
       </c>
       <c r="K19">
-        <v>8334</v>
+        <v>129.4</v>
       </c>
       <c r="L19">
-        <v>0.2130912810023012</v>
+        <v>0.1053917576152468</v>
       </c>
       <c r="M19">
-        <v>7737.18</v>
+        <v>51.93</v>
       </c>
       <c r="N19">
-        <v>0.09380253310654106</v>
+        <v>0.07520637219406227</v>
       </c>
       <c r="O19">
-        <v>0.9283873290136789</v>
+        <v>0.4013137557959814</v>
       </c>
       <c r="P19">
-        <v>2104.18</v>
+        <v>3.43</v>
       </c>
       <c r="Q19">
-        <v>0.0255102523286419</v>
+        <v>0.004967414916727009</v>
       </c>
       <c r="R19">
-        <v>0.252481401487881</v>
+        <v>0.02650695517774343</v>
       </c>
       <c r="S19">
-        <v>5633</v>
+        <v>48.5</v>
       </c>
       <c r="T19">
-        <v>0.7280430337668246</v>
+        <v>0.9339495474677451</v>
       </c>
       <c r="U19">
-        <v>35721</v>
+        <v>540.7</v>
       </c>
       <c r="V19">
-        <v>0.4330673817978583</v>
+        <v>0.7830557566980449</v>
       </c>
       <c r="W19">
-        <v>0.1187467050425317</v>
+        <v>0.18077675328304</v>
       </c>
       <c r="X19">
-        <v>0.1074308513990025</v>
+        <v>0.07069259630439403</v>
       </c>
       <c r="Y19">
-        <v>0.01131585364352915</v>
+        <v>0.1100841569786459</v>
       </c>
       <c r="Z19">
-        <v>0.1153289136170687</v>
+        <v>0.5154014636030924</v>
       </c>
       <c r="AA19">
-        <v>-0.0006805240207560181</v>
+        <v>0.0007900966049107296</v>
       </c>
       <c r="AB19">
-        <v>0.04186459693899631</v>
+        <v>0.03212381834987024</v>
       </c>
       <c r="AC19">
-        <v>-0.04254512095975232</v>
+        <v>-0.03133372174495951</v>
       </c>
       <c r="AD19">
-        <v>312585</v>
+        <v>1901.4</v>
       </c>
       <c r="AE19">
-        <v>4802.041628073604</v>
+        <v>102.5206313048451</v>
       </c>
       <c r="AF19">
-        <v>317387.0416280736</v>
+        <v>2003.920631304845</v>
       </c>
       <c r="AG19">
-        <v>281666.0416280736</v>
+        <v>1463.220631304845</v>
       </c>
       <c r="AH19">
-        <v>0.7937240927801628</v>
+        <v>0.743729693880199</v>
       </c>
       <c r="AI19">
-        <v>0.791613167841188</v>
+        <v>0.6291506235617522</v>
       </c>
       <c r="AJ19">
-        <v>0.7734896099851001</v>
+        <v>0.67939202979095</v>
       </c>
       <c r="AK19">
-        <v>0.7712312974327532</v>
+        <v>0.5533237087863906</v>
       </c>
       <c r="AL19">
         <v>0</v>
@@ -2818,10 +2824,10 @@
         <v>0</v>
       </c>
       <c r="AN19">
-        <v>461.7208271787297</v>
+        <v>81.95689655172414</v>
       </c>
       <c r="AP19">
-        <v>416.0502830547616</v>
+        <v>63.06985479762264</v>
       </c>
     </row>
     <row r="20">
@@ -2832,7 +2838,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>The Charles Schwab Corporation (NYSE:SCHW)</t>
+          <t>Morgan Stanley (NYSE:MS)</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2841,13 +2847,13 @@
         </is>
       </c>
       <c r="D20">
-        <v>0.128</v>
+        <v>0.0529</v>
       </c>
       <c r="E20">
-        <v>0.24</v>
+        <v>0.224</v>
       </c>
       <c r="F20">
-        <v>0.11</v>
+        <v>0.0868</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2856,91 +2862,91 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>-0.0007560604098683612</v>
+        <v>-0.006960888168279803</v>
       </c>
       <c r="J20">
-        <v>-0.0005788921900872389</v>
+        <v>-0.005511364329134043</v>
       </c>
       <c r="K20">
-        <v>3787</v>
+        <v>9850</v>
       </c>
       <c r="L20">
-        <v>0.3511683976261127</v>
+        <v>0.2168886931630518</v>
       </c>
       <c r="M20">
-        <v>3818</v>
+        <v>5879.88</v>
       </c>
       <c r="N20">
-        <v>0.06215345946350723</v>
+        <v>0.04742435338639377</v>
       </c>
       <c r="O20">
-        <v>1.008185899128598</v>
+        <v>0.5969421319796955</v>
       </c>
       <c r="P20">
-        <v>854</v>
+        <v>2532.88</v>
       </c>
       <c r="Q20">
-        <v>0.01390231911520041</v>
+        <v>0.0204290217156352</v>
       </c>
       <c r="R20">
-        <v>0.2255083179297597</v>
+        <v>0.2571451776649746</v>
       </c>
       <c r="S20">
-        <v>2964</v>
+        <v>3347</v>
       </c>
       <c r="T20">
-        <v>0.7763226820324778</v>
+        <v>0.5692293039994013</v>
       </c>
       <c r="U20">
-        <v>20252</v>
+        <v>94772</v>
       </c>
       <c r="V20">
-        <v>0.3296835675890383</v>
+        <v>0.7643864873322773</v>
       </c>
       <c r="W20">
-        <v>0.209910758827116</v>
+        <v>0.1333568005198884</v>
       </c>
       <c r="X20">
-        <v>0.04474924054808173</v>
+        <v>0.06482084008658627</v>
       </c>
       <c r="Y20">
-        <v>0.1651615182790343</v>
+        <v>0.06853596043330216</v>
       </c>
       <c r="Z20">
-        <v>2.025253020653043</v>
+        <v>0.1286661846009565</v>
       </c>
       <c r="AA20">
-        <v>-0.001172403156606636</v>
+        <v>-0.0007091262201754874</v>
       </c>
       <c r="AB20">
-        <v>0.04156141587643861</v>
+        <v>0.03121581054924636</v>
       </c>
       <c r="AC20">
-        <v>-0.04273381903304525</v>
+        <v>-0.03192493676942185</v>
       </c>
       <c r="AD20">
-        <v>9563</v>
+        <v>303765</v>
       </c>
       <c r="AE20">
-        <v>695.766777300102</v>
+        <v>5395.643680812136</v>
       </c>
       <c r="AF20">
-        <v>10258.7667773001</v>
+        <v>309160.6436808122</v>
       </c>
       <c r="AG20">
-        <v>-9993.233222699899</v>
+        <v>214388.6436808122</v>
       </c>
       <c r="AH20">
-        <v>0.1431042488862703</v>
+        <v>0.7137577774262494</v>
       </c>
       <c r="AI20">
-        <v>0.324513410976306</v>
+        <v>0.7748801811260466</v>
       </c>
       <c r="AJ20">
-        <v>-0.1942871967058705</v>
+        <v>0.6335866514326872</v>
       </c>
       <c r="AK20">
-        <v>-0.8796266500838072</v>
+        <v>0.7047467507177745</v>
       </c>
       <c r="AL20">
         <v>0</v>
@@ -2949,10 +2955,10 @@
         <v>0</v>
       </c>
       <c r="AN20">
-        <v>73</v>
+        <v>398.1192660550459</v>
       </c>
       <c r="AP20">
-        <v>-76.28422307404503</v>
+        <v>280.9811843785218</v>
       </c>
     </row>
     <row r="21">
@@ -2963,7 +2969,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Interactive Brokers Group, Inc. (NasdaqGS:IBKR)</t>
+          <t>The Goldman Sachs Group, Inc. (NYSE:GS)</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -2972,13 +2978,13 @@
         </is>
       </c>
       <c r="D21">
-        <v>0.08689999999999999</v>
+        <v>0.0297</v>
       </c>
       <c r="E21">
-        <v>0.315</v>
+        <v>-0.017</v>
       </c>
       <c r="F21">
-        <v>0.1</v>
+        <v>0.11</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2987,91 +2993,91 @@
         <v>0</v>
       </c>
       <c r="I21">
-        <v>-0.005546761962582002</v>
+        <v>-0.007815122869133143</v>
       </c>
       <c r="J21">
-        <v>-0.005215109817505608</v>
+        <v>-0.005798670926767976</v>
       </c>
       <c r="K21">
-        <v>160</v>
+        <v>6870</v>
       </c>
       <c r="L21">
-        <v>0.08076728924785462</v>
+        <v>0.1733403981530543</v>
       </c>
       <c r="M21">
-        <v>57</v>
+        <v>5376</v>
       </c>
       <c r="N21">
-        <v>0.01594762464327682</v>
+        <v>0.05682208535784913</v>
       </c>
       <c r="O21">
-        <v>0.35625</v>
+        <v>0.7825327510917031</v>
       </c>
       <c r="P21">
-        <v>30</v>
+        <v>453</v>
       </c>
       <c r="Q21">
-        <v>0.008393486654356221</v>
+        <v>0.004788021701470546</v>
       </c>
       <c r="R21">
-        <v>0.1875</v>
+        <v>0.06593886462882097</v>
       </c>
       <c r="S21">
-        <v>27</v>
+        <v>4923</v>
       </c>
       <c r="T21">
-        <v>0.4736842105263158</v>
+        <v>0.9157366071428571</v>
       </c>
       <c r="U21">
-        <v>3035</v>
+        <v>153201</v>
       </c>
       <c r="V21">
-        <v>0.8491410665323709</v>
+        <v>1.619270888933751</v>
       </c>
       <c r="W21">
-        <v>0.1287208366854385</v>
+        <v>0.08501528295115643</v>
       </c>
       <c r="X21">
-        <v>0.06454084365688781</v>
+        <v>0.09972048322067387</v>
       </c>
       <c r="Y21">
-        <v>0.06417999302855065</v>
+        <v>-0.01470520026951744</v>
       </c>
       <c r="Z21">
-        <v>0.6859559185591261</v>
+        <v>0.08777301623727068</v>
       </c>
       <c r="AA21">
-        <v>-0.003577335445253776</v>
+        <v>-0.000508966837409795</v>
       </c>
       <c r="AB21">
-        <v>0.03977882075043512</v>
+        <v>0.03158247623512048</v>
       </c>
       <c r="AC21">
-        <v>-0.0433561561956889</v>
+        <v>-0.03209144307253027</v>
       </c>
       <c r="AD21">
-        <v>4606</v>
+        <v>462210</v>
       </c>
       <c r="AE21">
-        <v>144.9406772393747</v>
+        <v>3468.683823361769</v>
       </c>
       <c r="AF21">
-        <v>4750.940677239375</v>
+        <v>465678.6838233618</v>
       </c>
       <c r="AG21">
-        <v>1715.940677239375</v>
+        <v>312477.6838233618</v>
       </c>
       <c r="AH21">
-        <v>0.5706739214903924</v>
+        <v>0.8311389878387871</v>
       </c>
       <c r="AI21">
-        <v>0.3830186551889207</v>
+        <v>0.8315740026243611</v>
       </c>
       <c r="AJ21">
-        <v>0.3243657932618206</v>
+        <v>0.7675909930226613</v>
       </c>
       <c r="AK21">
-        <v>0.1831520484923157</v>
+        <v>0.7681440493332407</v>
       </c>
       <c r="AL21">
         <v>0</v>
@@ -3080,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="AN21">
-        <v>255.8888888888889</v>
+        <v>1203.671875</v>
       </c>
       <c r="AP21">
-        <v>95.33003762440973</v>
+        <v>813.7439682900045</v>
       </c>
     </row>
     <row r="22">
@@ -3094,7 +3100,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>B. Riley Financial, Inc. (NasdaqGM:RILY)</t>
+          <t>Evercore Inc. (NYSE:EVR)</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -3103,7 +3109,10 @@
         </is>
       </c>
       <c r="D22">
-        <v>0.476</v>
+        <v>0.119</v>
+      </c>
+      <c r="E22">
+        <v>0.363</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -3112,106 +3121,103 @@
         <v>0</v>
       </c>
       <c r="I22">
-        <v>-0.003949315813737694</v>
+        <v>-0.007800589574237781</v>
       </c>
       <c r="J22">
-        <v>-0.002781561264751802</v>
+        <v>-0.00598581032947205</v>
       </c>
       <c r="K22">
-        <v>55.7</v>
+        <v>235.4</v>
       </c>
       <c r="L22">
-        <v>0.1081553398058252</v>
+        <v>0.1179713340683572</v>
       </c>
       <c r="M22">
-        <v>20.09</v>
+        <v>277.8</v>
       </c>
       <c r="N22">
-        <v>0.03011994002998501</v>
+        <v>0.06235830209432311</v>
       </c>
       <c r="O22">
-        <v>0.3606822262118491</v>
+        <v>1.180118946474087</v>
       </c>
       <c r="P22">
-        <v>12.2</v>
+        <v>104.2</v>
       </c>
       <c r="Q22">
-        <v>0.01829085457271364</v>
+        <v>0.0233899750836158</v>
       </c>
       <c r="R22">
-        <v>0.2190305206463195</v>
+        <v>0.4426508071367884</v>
       </c>
       <c r="S22">
-        <v>7.890000000000001</v>
+        <v>173.6</v>
       </c>
       <c r="T22">
-        <v>0.3927327028372325</v>
+        <v>0.6249100071994241</v>
       </c>
       <c r="U22">
-        <v>170.6</v>
+        <v>1149.3</v>
       </c>
       <c r="V22">
-        <v>0.2557721139430285</v>
+        <v>0.2579855889021078</v>
       </c>
       <c r="W22">
-        <v>0.2075260804769002</v>
+        <v>0.3078331371779783</v>
       </c>
       <c r="X22">
-        <v>0.08415028988094246</v>
+        <v>0.03121507564697269</v>
       </c>
       <c r="Y22">
-        <v>0.1233757905959577</v>
+        <v>0.2766180615310056</v>
       </c>
       <c r="Z22">
-        <v>0.3478626233756868</v>
+        <v>1.951631764996156</v>
       </c>
       <c r="AA22">
-        <v>-0.0009676011986367549</v>
+        <v>-0.01168209757823976</v>
       </c>
       <c r="AB22">
-        <v>0.04245673909381404</v>
+        <v>0.02955267737683776</v>
       </c>
       <c r="AC22">
-        <v>-0.0434243402924508</v>
+        <v>-0.04123477495507752</v>
       </c>
       <c r="AD22">
-        <v>1581.5</v>
+        <v>396.6</v>
       </c>
       <c r="AE22">
-        <v>73.16948822037456</v>
+        <v>294.3264821821703</v>
       </c>
       <c r="AF22">
-        <v>1654.669488220375</v>
+        <v>690.9264821821703</v>
       </c>
       <c r="AG22">
-        <v>1484.069488220375</v>
+        <v>-458.3735178178297</v>
       </c>
       <c r="AH22">
-        <v>0.7127067382397853</v>
+        <v>0.1342692927121732</v>
       </c>
       <c r="AI22">
-        <v>0.8467812931910257</v>
+        <v>0.3640428060141544</v>
       </c>
       <c r="AJ22">
-        <v>0.6899216860949373</v>
+        <v>-0.1146929764788022</v>
       </c>
       <c r="AK22">
-        <v>0.8321249665455422</v>
+        <v>-0.6122860047399303</v>
       </c>
       <c r="AL22">
         <v>0</v>
       </c>
       <c r="AM22">
-        <v>-1.92</v>
+        <v>0</v>
       </c>
       <c r="AN22">
-        <v>125.515873015873</v>
+        <v>9.159353348729793</v>
       </c>
       <c r="AP22">
-        <v>117.7832927159028</v>
-      </c>
-      <c r="AQ22">
-        <v>-0</v>
+        <v>-10.58599348309076</v>
       </c>
     </row>
     <row r="23">
@@ -3222,7 +3228,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>TD Ameritrade Holding Corporation (NasdaqGS:AMTD)</t>
+          <t>BGC Partners, Inc. (NasdaqGS:BGCP)</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -3231,106 +3237,103 @@
         </is>
       </c>
       <c r="D23">
-        <v>0.136</v>
+        <v>-0.0306</v>
       </c>
       <c r="E23">
-        <v>0.229</v>
-      </c>
-      <c r="F23">
-        <v>0.0814</v>
+        <v>0.0112</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.01564301830032589</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>-0.001650855508590451</v>
+        <v>-0.007238917780421074</v>
       </c>
       <c r="J23">
-        <v>-0.001244482404563918</v>
+        <v>-0.005195816898355759</v>
       </c>
       <c r="K23">
-        <v>2208</v>
+        <v>45.6</v>
       </c>
       <c r="L23">
-        <v>0.3760217983651226</v>
+        <v>0.02286287290047631</v>
       </c>
       <c r="M23">
-        <v>1650</v>
+        <v>118.206</v>
       </c>
       <c r="N23">
-        <v>0.06108464109996779</v>
+        <v>0.08149889685603971</v>
       </c>
       <c r="O23">
-        <v>0.7472826086956522</v>
+        <v>2.592236842105263</v>
       </c>
       <c r="P23">
-        <v>667</v>
+        <v>118.2</v>
       </c>
       <c r="Q23">
-        <v>0.0246930034022294</v>
+        <v>0.08149476006618864</v>
       </c>
       <c r="R23">
-        <v>0.3020833333333333</v>
+        <v>2.592105263157895</v>
       </c>
       <c r="S23">
-        <v>983</v>
+        <v>0.006000000000000227</v>
       </c>
       <c r="T23">
-        <v>0.5957575757575757</v>
+        <v>5.07588447286959e-05</v>
       </c>
       <c r="U23">
-        <v>2852</v>
+        <v>492.3</v>
       </c>
       <c r="V23">
-        <v>0.1055838766164292</v>
+        <v>0.3394236072807501</v>
       </c>
       <c r="W23">
-        <v>0.2758965387979508</v>
+        <v>0.06314040432013293</v>
       </c>
       <c r="X23">
-        <v>0.04443051454227103</v>
+        <v>0.04430728825458322</v>
       </c>
       <c r="Y23">
-        <v>0.2314660242556797</v>
+        <v>0.01883311606554972</v>
       </c>
       <c r="Z23">
-        <v>1.423353279936285</v>
+        <v>1.807938619393424</v>
       </c>
       <c r="AA23">
-        <v>-0.001771338112359047</v>
+        <v>-0.009393718029834335</v>
       </c>
       <c r="AB23">
-        <v>0.04200525223903968</v>
+        <v>0.03289581418601492</v>
       </c>
       <c r="AC23">
-        <v>-0.04377659035139873</v>
+        <v>-0.04228953221584926</v>
       </c>
       <c r="AD23">
-        <v>3597</v>
+        <v>1324.1</v>
       </c>
       <c r="AE23">
-        <v>408.4691177322156</v>
+        <v>222.1901075652491</v>
       </c>
       <c r="AF23">
-        <v>4005.469117732216</v>
+        <v>1546.290107565249</v>
       </c>
       <c r="AG23">
-        <v>1153.469117732216</v>
+        <v>1053.990107565249</v>
       </c>
       <c r="AH23">
-        <v>0.1291371595689023</v>
+        <v>0.5159993366219569</v>
       </c>
       <c r="AI23">
-        <v>0.3152555077358015</v>
+        <v>0.6518407199464796</v>
       </c>
       <c r="AJ23">
-        <v>0.04095374371482169</v>
+        <v>0.4208570000262183</v>
       </c>
       <c r="AK23">
-        <v>0.117062235031157</v>
+        <v>0.5606658087744983</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -3339,10 +3342,10 @@
         <v>0</v>
       </c>
       <c r="AN23">
-        <v>49.95833333333334</v>
+        <v>44.13666666666666</v>
       </c>
       <c r="AP23">
-        <v>16.02040441294744</v>
+        <v>35.1330035855083</v>
       </c>
     </row>
     <row r="24">
@@ -3353,7 +3356,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>E*TRADE Financial Corporation (NasdaqGS:ETFC)</t>
+          <t>Stifel Financial Corp. (NYSE:SF)</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -3362,13 +3365,13 @@
         </is>
       </c>
       <c r="D24">
-        <v>0.112</v>
+        <v>0.09029999999999999</v>
       </c>
       <c r="E24">
-        <v>0.277</v>
+        <v>0.287</v>
       </c>
       <c r="F24">
-        <v>0.0429</v>
+        <v>0.05</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3377,91 +3380,91 @@
         <v>0</v>
       </c>
       <c r="I24">
-        <v>-0.007765733571312306</v>
+        <v>-0.01753056251387782</v>
       </c>
       <c r="J24">
-        <v>-0.005710417214100459</v>
+        <v>-0.01349226681477352</v>
       </c>
       <c r="K24">
-        <v>1053</v>
+        <v>445.7</v>
       </c>
       <c r="L24">
-        <v>0.3526456798392498</v>
+        <v>0.1242507875442558</v>
       </c>
       <c r="M24">
-        <v>1548</v>
+        <v>210.2</v>
       </c>
       <c r="N24">
-        <v>0.15233371711983</v>
+        <v>0.04044174234261966</v>
       </c>
       <c r="O24">
-        <v>1.47008547008547</v>
+        <v>0.4716176800538479</v>
       </c>
       <c r="P24">
-        <v>139</v>
+        <v>45.1</v>
       </c>
       <c r="Q24">
-        <v>0.01367854436670308</v>
+        <v>0.008677081730029243</v>
       </c>
       <c r="R24">
-        <v>0.1320037986704653</v>
+        <v>0.1011891406775858</v>
       </c>
       <c r="S24">
-        <v>1409</v>
+        <v>165.1</v>
       </c>
       <c r="T24">
-        <v>0.9102067183462532</v>
+        <v>0.7854424357754519</v>
       </c>
       <c r="U24">
-        <v>493</v>
+        <v>1716.6</v>
       </c>
       <c r="V24">
-        <v>0.04851454944449365</v>
+        <v>0.3302678159150377</v>
       </c>
       <c r="W24">
-        <v>0.1732762876419286</v>
+        <v>0.1396434501989536</v>
       </c>
       <c r="X24">
-        <v>0.04681860469167304</v>
+        <v>0.03573048070745994</v>
       </c>
       <c r="Y24">
-        <v>0.1264576829502556</v>
+        <v>0.1039129694914936</v>
       </c>
       <c r="Z24">
-        <v>0.3884004124611899</v>
+        <v>0.8640659135937178</v>
       </c>
       <c r="AA24">
-        <v>-0.002217928401282097</v>
+        <v>-0.01165820785175748</v>
       </c>
       <c r="AB24">
-        <v>0.04217934344624624</v>
+        <v>0.03140625577885668</v>
       </c>
       <c r="AC24">
-        <v>-0.04439727184752833</v>
+        <v>-0.04306446363061416</v>
       </c>
       <c r="AD24">
-        <v>2681</v>
+        <v>1654.3</v>
       </c>
       <c r="AE24">
-        <v>250.9424022196927</v>
+        <v>784.9194039676555</v>
       </c>
       <c r="AF24">
-        <v>2931.942402219693</v>
+        <v>2439.219403967656</v>
       </c>
       <c r="AG24">
-        <v>2438.942402219693</v>
+        <v>722.6194039676557</v>
       </c>
       <c r="AH24">
-        <v>0.2239176486286916</v>
+        <v>0.3194025254414654</v>
       </c>
       <c r="AI24">
-        <v>0.3085949033366108</v>
+        <v>0.3770092410226645</v>
       </c>
       <c r="AJ24">
-        <v>0.193553916823058</v>
+        <v>0.1220595647998054</v>
       </c>
       <c r="AK24">
-        <v>0.2707546621988502</v>
+        <v>0.1520241630226818</v>
       </c>
       <c r="AL24">
         <v>0</v>
@@ -3470,10 +3473,10 @@
         <v>0</v>
       </c>
       <c r="AN24">
-        <v>99.29629629629629</v>
+        <v>17.58023379383635</v>
       </c>
       <c r="AP24">
-        <v>90.33120008221084</v>
+        <v>7.679271030474556</v>
       </c>
     </row>
     <row r="25">
@@ -3484,7 +3487,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>BGC Partners, Inc. (NasdaqGS:BGCP)</t>
+          <t>StoneX Group Inc. (NasdaqGS:SNEX)</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -3493,103 +3496,103 @@
         </is>
       </c>
       <c r="D25">
-        <v>0.0379</v>
+        <v>0.09279999999999999</v>
       </c>
       <c r="E25">
-        <v>0.154</v>
+        <v>0.249</v>
       </c>
       <c r="G25">
-        <v>0.01362357470753739</v>
+        <v>0</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>-0.004256052928254653</v>
+        <v>-0.0001491990318642026</v>
       </c>
       <c r="J25">
-        <v>-0.002166383105513904</v>
+        <v>-0.0001224197184526791</v>
       </c>
       <c r="K25">
-        <v>55.2</v>
+        <v>169.6</v>
       </c>
       <c r="L25">
-        <v>0.02724714941507478</v>
+        <v>0.003138671542464598</v>
       </c>
       <c r="M25">
-        <v>192.83</v>
+        <v>7.5</v>
       </c>
       <c r="N25">
-        <v>0.0937433155080214</v>
+        <v>0.006664889362836577</v>
       </c>
       <c r="O25">
-        <v>3.493297101449275</v>
+        <v>0.04422169811320755</v>
       </c>
       <c r="P25">
-        <v>190.5</v>
+        <v>-0</v>
       </c>
       <c r="Q25">
-        <v>0.09261059795819154</v>
+        <v>-0</v>
       </c>
       <c r="R25">
-        <v>3.451086956521739</v>
+        <v>-0</v>
       </c>
       <c r="S25">
-        <v>2.330000000000013</v>
+        <v>7.5</v>
       </c>
       <c r="T25">
-        <v>0.01208318207747764</v>
+        <v>1</v>
       </c>
       <c r="U25">
-        <v>414</v>
+        <v>952.6</v>
       </c>
       <c r="V25">
-        <v>0.2012639766650462</v>
+        <v>0.8465298142717498</v>
       </c>
       <c r="W25">
-        <v>0.0539958916169422</v>
+        <v>0.285425782564793</v>
       </c>
       <c r="X25">
-        <v>0.05478688688367125</v>
+        <v>0.1015000878444994</v>
       </c>
       <c r="Y25">
-        <v>-0.0007909952667290582</v>
+        <v>0.1839256947202936</v>
       </c>
       <c r="Z25">
-        <v>0.8010005684784968</v>
+        <v>11.13307346578424</v>
       </c>
       <c r="AA25">
-        <v>-0.001735274099058848</v>
+        <v>-0.001362907719194299</v>
       </c>
       <c r="AB25">
-        <v>0.04385354480617312</v>
+        <v>0.04319175305820296</v>
       </c>
       <c r="AC25">
-        <v>-0.04558881890523196</v>
+        <v>-0.04455466077739725</v>
       </c>
       <c r="AD25">
-        <v>1311.4</v>
+        <v>5557.8</v>
       </c>
       <c r="AE25">
-        <v>244.6116881367555</v>
+        <v>120.3102960310065</v>
       </c>
       <c r="AF25">
-        <v>1556.011688136756</v>
+        <v>5678.110296031006</v>
       </c>
       <c r="AG25">
-        <v>1142.011688136756</v>
+        <v>4725.510296031006</v>
       </c>
       <c r="AH25">
-        <v>0.4306688775034649</v>
+        <v>0.8345976574929663</v>
       </c>
       <c r="AI25">
-        <v>0.6537557442755395</v>
+        <v>0.8809267137244395</v>
       </c>
       <c r="AJ25">
-        <v>0.356988907659138</v>
+        <v>0.8076676660045933</v>
       </c>
       <c r="AK25">
-        <v>0.5808478201047759</v>
+        <v>0.8602769777157417</v>
       </c>
       <c r="AL25">
         <v>0</v>
@@ -3598,10 +3601,10 @@
         <v>0</v>
       </c>
       <c r="AN25">
-        <v>32.5409429280397</v>
+        <v>347.3625</v>
       </c>
       <c r="AP25">
-        <v>28.33775901083761</v>
+        <v>295.3443935019379</v>
       </c>
     </row>
     <row r="26">
@@ -3612,7 +3615,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Virtu Financial, Inc. (NasdaqGS:VIRT)</t>
+          <t>Oppenheimer Holdings Inc. (NYSE:OPY)</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -3620,98 +3623,104 @@
           <t>Brokerage &amp; Investment Banking</t>
         </is>
       </c>
+      <c r="D26">
+        <v>0.0289</v>
+      </c>
+      <c r="E26">
+        <v>0.536</v>
+      </c>
       <c r="G26">
-        <v>0.01578336557059961</v>
+        <v>0</v>
       </c>
       <c r="H26">
         <v>0</v>
       </c>
       <c r="I26">
-        <v>-0.006533982709549468</v>
+        <v>-0.00239361796808393</v>
       </c>
       <c r="J26">
-        <v>-0.006533982709549468</v>
+        <v>-0.001767349852265961</v>
       </c>
       <c r="K26">
-        <v>40</v>
+        <v>66.5</v>
       </c>
       <c r="L26">
-        <v>0.03094777562862669</v>
+        <v>0.06329113924050632</v>
       </c>
       <c r="M26">
-        <v>129.8</v>
+        <v>26.13</v>
       </c>
       <c r="N26">
-        <v>0.06973245943913182</v>
+        <v>0.06653934300993125</v>
       </c>
       <c r="O26">
-        <v>3.245</v>
+        <v>0.3929323308270676</v>
       </c>
       <c r="P26">
-        <v>109.6</v>
+        <v>6.13</v>
       </c>
       <c r="Q26">
-        <v>0.05888041259267218</v>
+        <v>0.01560988031576267</v>
       </c>
       <c r="R26">
-        <v>2.74</v>
+        <v>0.09218045112781954</v>
       </c>
       <c r="S26">
-        <v>20.19999999999999</v>
+        <v>20</v>
       </c>
       <c r="T26">
-        <v>0.1556240369799691</v>
+        <v>0.7654037504783774</v>
       </c>
       <c r="U26">
-        <v>372.7</v>
+        <v>32.1</v>
       </c>
       <c r="V26">
-        <v>0.2002256366175997</v>
+        <v>0.08174178762414057</v>
       </c>
       <c r="W26">
-        <v>0.04010427110487267</v>
+        <v>0.1173667490292976</v>
       </c>
       <c r="X26">
-        <v>0.0785507894677597</v>
+        <v>0.05677573796127958</v>
       </c>
       <c r="Y26">
-        <v>-0.03844651836288703</v>
+        <v>0.06059101106801798</v>
       </c>
       <c r="Z26">
-        <v>0.655483845750364</v>
+        <v>1.017849052131877</v>
       </c>
       <c r="AA26">
-        <v>-0.004282920114521869</v>
+        <v>-0.001798895371914322</v>
       </c>
       <c r="AB26">
-        <v>0.0443793469956708</v>
+        <v>0.04331502023604157</v>
       </c>
       <c r="AC26">
-        <v>-0.04866226711019266</v>
+        <v>-0.04511391560795589</v>
       </c>
       <c r="AD26">
-        <v>3799.4</v>
+        <v>533.8</v>
       </c>
       <c r="AE26">
-        <v>206.2258632604634</v>
+        <v>225.5748719953289</v>
       </c>
       <c r="AF26">
-        <v>4005.625863260464</v>
+        <v>759.3748719953289</v>
       </c>
       <c r="AG26">
-        <v>3632.925863260464</v>
+        <v>727.2748719953289</v>
       </c>
       <c r="AH26">
-        <v>0.6827353341569267</v>
+        <v>0.6591367370769352</v>
       </c>
       <c r="AI26">
-        <v>0.7554469428247015</v>
+        <v>0.5524434408531145</v>
       </c>
       <c r="AJ26">
-        <v>0.6612141241117794</v>
+        <v>0.6493671332997212</v>
       </c>
       <c r="AK26">
-        <v>0.7369577253998013</v>
+        <v>0.5417418881847491</v>
       </c>
       <c r="AL26">
         <v>0</v>
@@ -3720,10 +3729,10 @@
         <v>0</v>
       </c>
       <c r="AN26">
-        <v>115.8353658536585</v>
+        <v>12.53051643192488</v>
       </c>
       <c r="AP26">
-        <v>110.759934855502</v>
+        <v>17.07218009378706</v>
       </c>
     </row>
     <row r="27">
@@ -3734,7 +3743,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>INTL FCStone Inc. (NasdaqGS:INTL)</t>
+          <t>Houlihan Lokey, Inc. (NYSE:HLI)</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -3743,10 +3752,10 @@
         </is>
       </c>
       <c r="D27">
-        <v>-0.00758</v>
+        <v>0.103</v>
       </c>
       <c r="E27">
-        <v>0.345</v>
+        <v>0.226</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -3755,91 +3764,91 @@
         <v>0</v>
       </c>
       <c r="I27">
-        <v>0.0001117605047219479</v>
+        <v>-0.004439254216528759</v>
       </c>
       <c r="J27">
-        <v>8.56830536201601e-05</v>
+        <v>-0.003589636184657226</v>
       </c>
       <c r="K27">
-        <v>85.09999999999999</v>
+        <v>202.8</v>
       </c>
       <c r="L27">
-        <v>0.002599084364873573</v>
+        <v>0.1807164498306897</v>
       </c>
       <c r="M27">
-        <v>3.8</v>
+        <v>134.2</v>
       </c>
       <c r="N27">
-        <v>0.004058094831268688</v>
+        <v>0.02879025164653637</v>
       </c>
       <c r="O27">
-        <v>0.04465334900117509</v>
+        <v>0.6617357001972386</v>
       </c>
       <c r="P27">
-        <v>-0</v>
+        <v>86.90000000000001</v>
       </c>
       <c r="Q27">
-        <v>-0</v>
+        <v>0.01864286786947847</v>
       </c>
       <c r="R27">
-        <v>-0</v>
+        <v>0.4285009861932939</v>
       </c>
       <c r="S27">
-        <v>3.8</v>
+        <v>47.29999999999998</v>
       </c>
       <c r="T27">
-        <v>1</v>
+        <v>0.3524590163934425</v>
       </c>
       <c r="U27">
-        <v>471.3</v>
+        <v>422</v>
       </c>
       <c r="V27">
-        <v>0.5033105510465613</v>
+        <v>0.09053268401518889</v>
       </c>
       <c r="W27">
-        <v>0.1684148030872749</v>
+        <v>0.2273797510931719</v>
       </c>
       <c r="X27">
-        <v>0.1273650564996012</v>
+        <v>0.0295553881397705</v>
       </c>
       <c r="Y27">
-        <v>0.04104974658767366</v>
+        <v>0.1978243629534014</v>
       </c>
       <c r="Z27">
-        <v>11.23041003858106</v>
+        <v>4.510837146198597</v>
       </c>
       <c r="AA27">
-        <v>0.0009622558255121254</v>
+        <v>-0.01619226424309042</v>
       </c>
       <c r="AB27">
-        <v>0.05161852445570914</v>
+        <v>0.0289634030747696</v>
       </c>
       <c r="AC27">
-        <v>-0.05065626863019701</v>
+        <v>-0.04515566731786003</v>
       </c>
       <c r="AD27">
-        <v>4661.6</v>
+        <v>15.2</v>
       </c>
       <c r="AE27">
-        <v>37.70352013121282</v>
+        <v>169.4086554089429</v>
       </c>
       <c r="AF27">
-        <v>4699.303520131213</v>
+        <v>184.6086554089429</v>
       </c>
       <c r="AG27">
-        <v>4228.003520131213</v>
+        <v>-237.3913445910571</v>
       </c>
       <c r="AH27">
-        <v>0.833845056494704</v>
+        <v>0.03809577698145115</v>
       </c>
       <c r="AI27">
-        <v>0.8877492009327556</v>
+        <v>0.1286284434762841</v>
       </c>
       <c r="AJ27">
-        <v>0.8186818678382033</v>
+        <v>-0.05366099598390393</v>
       </c>
       <c r="AK27">
-        <v>0.8767783239509909</v>
+        <v>-0.2342966015181179</v>
       </c>
       <c r="AL27">
         <v>0</v>
@@ -3848,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="AN27">
-        <v>416.2142857142858</v>
+        <v>0.5259515570934256</v>
       </c>
       <c r="AP27">
-        <v>377.5003142974298</v>
+        <v>-8.214233376853189</v>
       </c>
     </row>
     <row r="28">
@@ -3862,7 +3871,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ladenburg Thalmann Financial Services Inc. (AMEX:LTS)</t>
+          <t>Greenhill &amp; Co., Inc. (NYSE:GHL)</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -3871,13 +3880,7 @@
         </is>
       </c>
       <c r="D28">
-        <v>0.105</v>
-      </c>
-      <c r="E28">
-        <v>0.0713</v>
-      </c>
-      <c r="F28">
-        <v>0.15</v>
+        <v>-0.0001</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -3886,91 +3889,91 @@
         <v>0</v>
       </c>
       <c r="I28">
-        <v>-0.002245893307852998</v>
+        <v>-0.03378123546894938</v>
       </c>
       <c r="J28">
-        <v>-0.001676511905862097</v>
+        <v>-0.03378123546894938</v>
       </c>
       <c r="K28">
-        <v>31.8</v>
+        <v>-7.78</v>
       </c>
       <c r="L28">
-        <v>0.02258041610452318</v>
+        <v>-0.02987711213517666</v>
       </c>
       <c r="M28">
-        <v>79.7</v>
+        <v>49.08000000000001</v>
       </c>
       <c r="N28">
-        <v>0.1544274365433056</v>
+        <v>0.2131133304385584</v>
       </c>
       <c r="O28">
-        <v>2.506289308176101</v>
+        <v>-6.308483290488432</v>
       </c>
       <c r="P28">
-        <v>7.8</v>
+        <v>2.88</v>
       </c>
       <c r="Q28">
-        <v>0.01511335012594458</v>
+        <v>0.01250542770299609</v>
       </c>
       <c r="R28">
-        <v>0.2452830188679245</v>
+        <v>-0.3701799485861182</v>
       </c>
       <c r="S28">
-        <v>71.90000000000001</v>
+        <v>46.2</v>
       </c>
       <c r="T28">
-        <v>0.9021329987452948</v>
+        <v>0.941320293398533</v>
       </c>
       <c r="U28">
-        <v>251</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="V28">
-        <v>0.4863398566169347</v>
+        <v>0.3521493703864524</v>
       </c>
       <c r="W28">
-        <v>0.08231944084908102</v>
+        <v>-0.273943661971831</v>
       </c>
       <c r="X28">
-        <v>0.05537460734817429</v>
+        <v>0.05791428643593301</v>
       </c>
       <c r="Y28">
-        <v>0.02694483350090673</v>
+        <v>-0.331857948407764</v>
       </c>
       <c r="Z28">
-        <v>5.862629119271464</v>
+        <v>1.307339379404766</v>
       </c>
       <c r="AA28">
-        <v>-0.00982876751811243</v>
+        <v>-0.04416353941350255</v>
       </c>
       <c r="AB28">
-        <v>0.04224702466421838</v>
+        <v>0.03726714052230816</v>
       </c>
       <c r="AC28">
-        <v>-0.05207579218233081</v>
+        <v>-0.08143067993581071</v>
       </c>
       <c r="AD28">
-        <v>350.7</v>
+        <v>340.6</v>
       </c>
       <c r="AE28">
-        <v>57.51445772724688</v>
+        <v>122.9831685805721</v>
       </c>
       <c r="AF28">
-        <v>408.2144577272469</v>
+        <v>463.5831685805721</v>
       </c>
       <c r="AG28">
-        <v>157.2144577272469</v>
+        <v>382.4831685805721</v>
       </c>
       <c r="AH28">
-        <v>0.4416402386813099</v>
+        <v>0.6680997458533134</v>
       </c>
       <c r="AI28">
-        <v>0.6213173133805118</v>
+        <v>0.9719067655156967</v>
       </c>
       <c r="AJ28">
-        <v>0.2334933639445671</v>
+        <v>0.6241737505071194</v>
       </c>
       <c r="AK28">
-        <v>0.3872139396397078</v>
+        <v>0.9661516299163582</v>
       </c>
       <c r="AL28">
         <v>0</v>
@@ -3979,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="AN28">
-        <v>42.05035971223022</v>
+        <v>21.55696202531646</v>
       </c>
       <c r="AP28">
-        <v>18.85065440374663</v>
+        <v>24.20779547978304</v>
       </c>
     </row>
     <row r="29">
@@ -3993,7 +3996,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Oppenheimer Holdings Inc. (NYSE:OPY)</t>
+          <t>Moelis &amp; Company (NYSE:MC)</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -4002,10 +4005,10 @@
         </is>
       </c>
       <c r="D29">
-        <v>-0.0191</v>
+        <v>0.0741</v>
       </c>
       <c r="E29">
-        <v>0.13</v>
+        <v>0.182</v>
       </c>
       <c r="G29">
         <v>0</v>
@@ -4014,91 +4017,91 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>-0.004798347435717022</v>
+        <v>-0.04764915338177455</v>
       </c>
       <c r="J29">
-        <v>-0.003095150237813863</v>
+        <v>-0.04764915338177455</v>
       </c>
       <c r="K29">
-        <v>35.8</v>
+        <v>73.8</v>
       </c>
       <c r="L29">
-        <v>0.03851947493006241</v>
+        <v>0.09908700322234157</v>
       </c>
       <c r="M29">
-        <v>21.17</v>
+        <v>122.2</v>
       </c>
       <c r="N29">
-        <v>0.05985298275374612</v>
+        <v>0.04711597779148674</v>
       </c>
       <c r="O29">
-        <v>0.5913407821229051</v>
+        <v>1.655826558265583</v>
       </c>
       <c r="P29">
-        <v>5.87</v>
+        <v>79.7</v>
       </c>
       <c r="Q29">
-        <v>0.01659598529827537</v>
+        <v>0.03072948797038865</v>
       </c>
       <c r="R29">
-        <v>0.1639664804469274</v>
+        <v>1.079945799457995</v>
       </c>
       <c r="S29">
-        <v>15.3</v>
+        <v>42.5</v>
       </c>
       <c r="T29">
-        <v>0.7227208313651393</v>
+        <v>0.3477905073649755</v>
       </c>
       <c r="U29">
-        <v>26.2</v>
+        <v>85.5</v>
       </c>
       <c r="V29">
-        <v>0.07407407407407407</v>
+        <v>0.03296576187538557</v>
       </c>
       <c r="W29">
-        <v>0.06586936522539098</v>
+        <v>0.1783039381493114</v>
       </c>
       <c r="X29">
-        <v>0.08204401524619359</v>
+        <v>0.03041549031569055</v>
       </c>
       <c r="Y29">
-        <v>-0.01617465002080261</v>
+        <v>0.1478884478336209</v>
       </c>
       <c r="Z29">
-        <v>0.6648078558265244</v>
+        <v>1.195610311232239</v>
       </c>
       <c r="AA29">
-        <v>-0.002057680193061992</v>
+        <v>-0.05696981910473617</v>
       </c>
       <c r="AB29">
-        <v>0.05303303544443545</v>
+        <v>0.02893202321282778</v>
       </c>
       <c r="AC29">
-        <v>-0.05509071563749744</v>
+        <v>-0.08590184231756395</v>
       </c>
       <c r="AD29">
-        <v>612.9</v>
+        <v>0</v>
       </c>
       <c r="AE29">
-        <v>220.797920533777</v>
+        <v>257.9454471937284</v>
       </c>
       <c r="AF29">
-        <v>833.6979205337771</v>
+        <v>257.9454471937284</v>
       </c>
       <c r="AG29">
-        <v>807.497920533777</v>
+        <v>172.4454471937284</v>
       </c>
       <c r="AH29">
-        <v>0.7021217623145243</v>
+        <v>0.09045812243588068</v>
       </c>
       <c r="AI29">
-        <v>0.595371819316836</v>
+        <v>0.383536084096673</v>
       </c>
       <c r="AJ29">
-        <v>0.695400763517203</v>
+        <v>0.06234367818095025</v>
       </c>
       <c r="AK29">
-        <v>0.5876567517255971</v>
+        <v>0.293751442955694</v>
       </c>
       <c r="AL29">
         <v>0</v>
@@ -4107,376 +4110,10 @@
         <v>0</v>
       </c>
       <c r="AN29">
-        <v>15.43828715365239</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>20.33999799833191</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Evercore Inc. (NYSE:EVR)</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D30">
-        <v>0.211</v>
-      </c>
-      <c r="E30">
-        <v>0.361</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>-0.02956603599374203</v>
-      </c>
-      <c r="J30">
-        <v>-0.02296300928262346</v>
-      </c>
-      <c r="K30">
-        <v>355.6</v>
-      </c>
-      <c r="L30">
-        <v>0.1677358490566038</v>
-      </c>
-      <c r="M30">
-        <v>500.1</v>
-      </c>
-      <c r="N30">
-        <v>0.1705778020328808</v>
-      </c>
-      <c r="O30">
-        <v>1.406355455568054</v>
-      </c>
-      <c r="P30">
-        <v>93.7</v>
-      </c>
-      <c r="Q30">
-        <v>0.0319598881233372</v>
-      </c>
-      <c r="R30">
-        <v>0.2634983127109111</v>
-      </c>
-      <c r="S30">
-        <v>406.4</v>
-      </c>
-      <c r="T30">
-        <v>0.8126374725054989</v>
-      </c>
-      <c r="U30">
-        <v>304.7</v>
-      </c>
-      <c r="V30">
-        <v>0.1039293266934989</v>
-      </c>
-      <c r="W30">
-        <v>0.5322556503517437</v>
-      </c>
-      <c r="X30">
-        <v>0.04841305195195652</v>
-      </c>
-      <c r="Y30">
-        <v>0.4838425983997872</v>
-      </c>
-      <c r="Z30">
-        <v>2.64966885255552</v>
-      </c>
-      <c r="AA30">
-        <v>-0.06084437045711064</v>
-      </c>
-      <c r="AB30">
-        <v>0.04087504221830002</v>
-      </c>
-      <c r="AC30">
-        <v>-0.1017194126754107</v>
-      </c>
-      <c r="AD30">
-        <v>624.5</v>
-      </c>
-      <c r="AE30">
-        <v>495.8999815336655</v>
-      </c>
-      <c r="AF30">
-        <v>1120.399981533666</v>
-      </c>
-      <c r="AG30">
-        <v>815.6999815336656</v>
-      </c>
-      <c r="AH30">
-        <v>0.2764917789446363</v>
-      </c>
-      <c r="AI30">
-        <v>0.5275698033036427</v>
-      </c>
-      <c r="AJ30">
-        <v>0.2176651062183168</v>
-      </c>
-      <c r="AK30">
-        <v>0.4484331994582644</v>
-      </c>
-      <c r="AL30">
-        <v>0</v>
-      </c>
-      <c r="AM30">
-        <v>0</v>
-      </c>
-      <c r="AN30">
-        <v>17.10958904109589</v>
-      </c>
-      <c r="AP30">
-        <v>22.34794469955248</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Global Brokerage, Inc. (OTCPK:GLBR)</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="D31">
-        <v>-0.185</v>
-      </c>
-      <c r="G31">
-        <v>-0.03169398907103825</v>
-      </c>
-      <c r="H31">
-        <v>-0.03169398907103825</v>
-      </c>
-      <c r="I31">
-        <v>-0.07959715513314729</v>
-      </c>
-      <c r="J31">
-        <v>-0.07959715513314729</v>
-      </c>
-      <c r="K31">
-        <v>-36.8</v>
-      </c>
-      <c r="L31">
-        <v>-0.2872755659640905</v>
-      </c>
-      <c r="M31">
-        <v>-0</v>
-      </c>
-      <c r="N31">
-        <v>-0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>-0</v>
-      </c>
-      <c r="Q31">
-        <v>-0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>84.5</v>
-      </c>
-      <c r="V31">
-        <v>426.7676767676767</v>
-      </c>
-      <c r="W31">
-        <v>0.5061898211829435</v>
-      </c>
-      <c r="X31">
-        <v>18.41534257544572</v>
-      </c>
-      <c r="Y31">
-        <v>-17.90915275426278</v>
-      </c>
-      <c r="Z31">
-        <v>7.655998654226639</v>
-      </c>
-      <c r="AA31">
-        <v>-0.6093957125796445</v>
-      </c>
-      <c r="AB31">
-        <v>0.04552565218556275</v>
-      </c>
-      <c r="AC31">
-        <v>-0.6549213647652072</v>
-      </c>
-      <c r="AD31">
-        <v>188.6</v>
-      </c>
-      <c r="AE31">
-        <v>25.03197786278083</v>
-      </c>
-      <c r="AF31">
-        <v>213.6319778627808</v>
-      </c>
-      <c r="AG31">
-        <v>129.1319778627808</v>
-      </c>
-      <c r="AH31">
-        <v>0.9990740306762457</v>
-      </c>
-      <c r="AI31">
-        <v>1.769473023175239</v>
-      </c>
-      <c r="AJ31">
-        <v>0.9984690324449751</v>
-      </c>
-      <c r="AK31">
-        <v>3.564033361684932</v>
-      </c>
-      <c r="AL31">
-        <v>38</v>
-      </c>
-      <c r="AM31">
-        <v>38</v>
-      </c>
-      <c r="AN31">
-        <v>-50.02652519893898</v>
-      </c>
-      <c r="AO31">
-        <v>-0.3</v>
-      </c>
-      <c r="AP31">
-        <v>-34.25251402195778</v>
-      </c>
-      <c r="AQ31">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>United States</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>BlackStar Enterprise Group, Inc. (OTCPK:BEGI)</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Brokerage &amp; Investment Banking</t>
-        </is>
-      </c>
-      <c r="K32">
-        <v>-0.748</v>
-      </c>
-      <c r="M32">
-        <v>-0</v>
-      </c>
-      <c r="N32">
-        <v>-0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>-0</v>
-      </c>
-      <c r="Q32">
-        <v>-0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>-7.333333333333334</v>
-      </c>
-      <c r="X32">
-        <v>0.04657387033413041</v>
-      </c>
-      <c r="Y32">
-        <v>-7.379907203667464</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>-1.950819672131147</v>
-      </c>
-      <c r="AB32">
-        <v>0.0426850252827294</v>
-      </c>
-      <c r="AC32">
-        <v>-1.993504697413877</v>
-      </c>
-      <c r="AD32">
-        <v>0.21</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0.21</v>
-      </c>
-      <c r="AG32">
-        <v>0.21</v>
-      </c>
-      <c r="AH32">
-        <v>0.2151639344262295</v>
-      </c>
-      <c r="AI32">
-        <v>-3.230769230769229</v>
-      </c>
-      <c r="AJ32">
-        <v>0.2151639344262295</v>
-      </c>
-      <c r="AK32">
-        <v>-3.230769230769229</v>
-      </c>
-      <c r="AL32">
-        <v>0.119</v>
-      </c>
-      <c r="AM32">
-        <v>0.119</v>
-      </c>
-      <c r="AN32">
-        <v>-0.8860759493670887</v>
-      </c>
-      <c r="AO32">
-        <v>-2</v>
-      </c>
-      <c r="AP32">
-        <v>-0.8860759493670887</v>
-      </c>
-      <c r="AQ32">
-        <v>-2</v>
+        <v>10.71089734122537</v>
       </c>
     </row>
   </sheetData>
